--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IPTransit.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IPTransit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="395">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -1125,12 +1125,6 @@
     <t>Device847</t>
   </si>
   <si>
-    <t>10.28.53.38</t>
-  </si>
-  <si>
-    <t>Device351</t>
-  </si>
-  <si>
     <t>IPTransit1324</t>
   </si>
   <si>
@@ -1186,6 +1180,30 @@
   </si>
   <si>
     <t>IPTransitedit_1324@gmail.com</t>
+  </si>
+  <si>
+    <t>Cisco 12012</t>
+  </si>
+  <si>
+    <t>Device352</t>
+  </si>
+  <si>
+    <t>10.28.53.39</t>
+  </si>
+  <si>
+    <t>CiscoVendor_Bandwidth_Value</t>
+  </si>
+  <si>
+    <t>Edit_CiscoVendor_Bandwidth_value</t>
+  </si>
+  <si>
+    <t>10 Mbps</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
@@ -1635,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IF4"/>
+  <dimension ref="A1:IH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG7" sqref="BG7"/>
+    <sheetView tabSelected="1" topLeftCell="FA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="FE7" sqref="FE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1789,8 +1807,7 @@
     <col min="158" max="158" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="159" max="159" width="32.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="160" max="160" width="36.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="161" max="161" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="162" max="162" width="9.140625" style="2" collapsed="1"/>
+    <col min="161" max="162" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="163" max="163" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="164" max="164" width="21.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="165" max="165" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1833,7 +1850,7 @@
     <col min="204" max="204" width="33.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="205" max="205" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="206" max="206" width="15.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="207" max="207" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="207" max="207" width="33.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="208" max="208" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="209" max="209" width="23.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="210" max="210" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1843,7 +1860,7 @@
     <col min="214" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:240" ht="27" customHeight="1">
+    <row r="1" spans="1:242" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>319</v>
       </c>
@@ -2277,295 +2294,301 @@
         <v>187</v>
       </c>
       <c r="EO1" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="EP1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="EP1" s="19" t="s">
+      <c r="EQ1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="EQ1" s="19" t="s">
+      <c r="ER1" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="ER1" s="19" t="s">
+      <c r="ES1" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="ES1" s="19" t="s">
+      <c r="ET1" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="ET1" s="19" t="s">
+      <c r="EU1" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="EU1" s="19" t="s">
+      <c r="EV1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="EV1" s="19" t="s">
+      <c r="EW1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="EW1" s="19" t="s">
+      <c r="EX1" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="EX1" s="19" t="s">
+      <c r="EY1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="EY1" s="19" t="s">
+      <c r="EZ1" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="EZ1" s="19" t="s">
+      <c r="FA1" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="FA1" s="19" t="s">
+      <c r="FB1" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="FB1" s="19" t="s">
+      <c r="FC1" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="FC1" s="19" t="s">
+      <c r="FD1" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="FD1" s="19" t="s">
+      <c r="FE1" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="FE1" s="19" t="s">
+      <c r="FF1" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="FF1" s="19" t="s">
+      <c r="FG1" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="FG1" s="19" t="s">
+      <c r="FH1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="FH1" s="19" t="s">
+      <c r="FI1" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="FI1" s="19" t="s">
+      <c r="FJ1" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="FK1" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="FJ1" s="19" t="s">
+      <c r="FL1" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="FK1" s="19" t="s">
+      <c r="FM1" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="FL1" s="19" t="s">
+      <c r="FN1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="FM1" s="19" t="s">
+      <c r="FO1" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="FN1" s="19" t="s">
+      <c r="FP1" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="FO1" s="19" t="s">
+      <c r="FQ1" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="FP1" s="19" t="s">
+      <c r="FR1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="FQ1" s="19" t="s">
+      <c r="FS1" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="FR1" s="19" t="s">
+      <c r="FT1" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="FS1" s="19" t="s">
+      <c r="FU1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="FT1" s="19" t="s">
+      <c r="FV1" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="FU1" s="19" t="s">
+      <c r="FW1" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="FV1" s="19" t="s">
+      <c r="FX1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="FW1" s="19" t="s">
+      <c r="FY1" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="FX1" s="19" t="s">
+      <c r="FZ1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="FY1" s="19" t="s">
+      <c r="GA1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="FZ1" s="19" t="s">
+      <c r="GB1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="GA1" s="19" t="s">
+      <c r="GC1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="GB1" s="19" t="s">
+      <c r="GD1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="GC1" s="19" t="s">
+      <c r="GE1" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="GD1" s="19" t="s">
+      <c r="GF1" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="GE1" s="19" t="s">
+      <c r="GG1" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="GF1" s="19" t="s">
+      <c r="GH1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="GG1" s="19" t="s">
+      <c r="GI1" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="GH1" s="19" t="s">
+      <c r="GJ1" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="GI1" s="19" t="s">
+      <c r="GK1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="GJ1" s="19" t="s">
+      <c r="GL1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="GK1" s="19" t="s">
+      <c r="GM1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="GL1" s="19" t="s">
+      <c r="GN1" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="GM1" s="19" t="s">
+      <c r="GO1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="GN1" s="19" t="s">
+      <c r="GP1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="GO1" s="19" t="s">
+      <c r="GQ1" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="GP1" s="19" t="s">
+      <c r="GR1" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="GQ1" s="19" t="s">
+      <c r="GS1" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="GR1" s="19" t="s">
+      <c r="GT1" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="GS1" s="19" t="s">
+      <c r="GU1" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="GT1" s="19" t="s">
+      <c r="GV1" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="GU1" s="19" t="s">
+      <c r="GW1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="GV1" s="19" t="s">
+      <c r="GX1" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="GW1" s="19" t="s">
+      <c r="GY1" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="GX1" s="19" t="s">
+      <c r="GZ1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="GY1" s="19" t="s">
+      <c r="HA1" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="GZ1" s="19" t="s">
+      <c r="HB1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="HA1" s="19" t="s">
+      <c r="HC1" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="HB1" s="19" t="s">
+      <c r="HD1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="HC1" s="19" t="s">
+      <c r="HE1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="HD1" s="19" t="s">
+      <c r="HF1" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="HE1" s="19" t="s">
+      <c r="HG1" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="HF1" s="19" t="s">
+      <c r="HH1" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="HG1" s="25" t="s">
+      <c r="HI1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="HH1" s="25" t="s">
+      <c r="HJ1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="HI1" s="25" t="s">
+      <c r="HK1" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="HJ1" s="25" t="s">
+      <c r="HL1" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="HK1" s="25" t="s">
+      <c r="HM1" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="HL1" s="25" t="s">
+      <c r="HN1" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="HM1" s="25" t="s">
+      <c r="HO1" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="HN1" s="25" t="s">
+      <c r="HP1" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="HO1" s="25" t="s">
+      <c r="HQ1" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="HP1" s="25" t="s">
+      <c r="HR1" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="HQ1" s="25" t="s">
+      <c r="HS1" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="HR1" s="25" t="s">
+      <c r="HT1" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="HS1" s="25" t="s">
+      <c r="HU1" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="HT1" s="25" t="s">
+      <c r="HV1" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="HU1" s="25" t="s">
+      <c r="HW1" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="HV1" s="25" t="s">
+      <c r="HX1" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="HW1" s="25" t="s">
+      <c r="HY1" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="HX1" s="25" t="s">
+      <c r="HZ1" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="HY1" s="25" t="s">
+      <c r="IA1" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="HZ1" s="25" t="s">
+      <c r="IB1" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="IA1" s="25" t="s">
+      <c r="IC1" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="IB1" s="25" t="s">
+      <c r="ID1" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="IC1" s="25" t="s">
+      <c r="IE1" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="ID1" s="25" t="s">
+      <c r="IF1" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="IE1" s="25" t="s">
+      <c r="IG1" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="IF1" s="25" t="s">
+      <c r="IH1" s="25" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:240" ht="18" customHeight="1">
+    <row r="2" spans="1:242" ht="18" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>86</v>
       </c>
@@ -2579,31 +2602,31 @@
         <v>61</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>264</v>
@@ -2630,22 +2653,22 @@
         <v>5</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>24</v>
@@ -2684,10 +2707,10 @@
         <v>36</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>74</v>
@@ -2696,19 +2719,19 @@
         <v>41</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>261</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>172</v>
@@ -2717,22 +2740,22 @@
         <v>54</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>262</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="BE2" s="6" t="s">
         <v>62</v>
@@ -2747,13 +2770,13 @@
         <v>57</v>
       </c>
       <c r="BI2" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="BJ2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BK2" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BL2" s="2" t="s">
         <v>263</v>
@@ -2789,10 +2812,10 @@
         <v>95</v>
       </c>
       <c r="BW2" s="11" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="BX2" s="13" t="s">
-        <v>225</v>
+        <v>387</v>
       </c>
       <c r="BY2" s="15" t="s">
         <v>61</v>
@@ -2825,7 +2848,7 @@
         <v>129</v>
       </c>
       <c r="CI2" s="15" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="CJ2" s="16" t="s">
         <v>86</v>
@@ -2999,23 +3022,23 @@
         <v>186</v>
       </c>
       <c r="EO2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="EP2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="EP2" s="2" t="s">
+      <c r="EQ2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="EQ2" s="2" t="s">
+      <c r="ER2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="ER2" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="ES2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="ET2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="ET2" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="EU2" s="2" t="s">
         <v>76</v>
       </c>
@@ -3029,11 +3052,11 @@
         <v>76</v>
       </c>
       <c r="EY2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="EZ2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="EZ2" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="FA2" s="2" t="s">
         <v>76</v>
       </c>
@@ -3050,7 +3073,7 @@
         <v>76</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="FG2" s="2" t="s">
         <v>76</v>
@@ -3095,97 +3118,97 @@
         <v>76</v>
       </c>
       <c r="FU2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="FV2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="FW2" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="FV2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="FW2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="FX2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="FY2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="FZ2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="GA2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="FZ2" s="17" t="s">
+      <c r="GB2" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="GA2" s="2" t="s">
+      <c r="GC2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="GB2" s="2" t="s">
+      <c r="GD2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="GC2" s="2" t="s">
+      <c r="GE2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="GD2" s="2" t="s">
+      <c r="GF2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="GE2" s="2" t="s">
+      <c r="GG2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="GF2" s="2" t="s">
+      <c r="GH2" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="GG2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="GH2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="GI2" s="2" t="s">
         <v>84</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GL2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="GL2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="GM2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GN2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="GO2" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="GN2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GO2" s="2" t="s">
+      <c r="GP2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GQ2" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="GP2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GQ2" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="GR2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="GS2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GT2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GU2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="GT2" s="2" t="s">
+      <c r="GV2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="GU2" s="2" t="s">
+      <c r="GW2" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="GV2" s="2" t="s">
+      <c r="GX2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="GW2" s="2">
-        <v>13246</v>
-      </c>
-      <c r="GX2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="GY2" s="2" t="s">
-        <v>84</v>
+      <c r="GY2" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="GZ2" s="2" t="s">
         <v>84</v>
@@ -3194,100 +3217,106 @@
         <v>84</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="HC2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="HD2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HE2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HF2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="HE2" s="2" t="s">
+      <c r="HG2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="HF2" s="2" t="s">
+      <c r="HH2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="HG2" s="26" t="s">
+      <c r="HI2" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="HH2" s="26" t="s">
+      <c r="HJ2" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="HI2" s="26" t="s">
+      <c r="HK2" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="HJ2" s="3" t="s">
+      <c r="HL2" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="HK2" s="3" t="s">
+      <c r="HM2" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="HL2" s="3" t="s">
+      <c r="HN2" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="HM2" s="27" t="s">
+      <c r="HO2" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="HN2" s="3">
+      <c r="HP2" s="3">
         <v>11100132413</v>
       </c>
-      <c r="HO2" s="3" t="s">
+      <c r="HQ2" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="HP2" s="26" t="s">
+      <c r="HR2" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="HQ2" s="26" t="s">
+      <c r="HS2" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="HR2" s="26" t="s">
+      <c r="HT2" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="HS2" s="3" t="s">
+      <c r="HU2" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="HT2" s="3" t="s">
+      <c r="HV2" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="HU2" s="28" t="s">
+      <c r="HW2" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="HV2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="HW2" s="3" t="s">
+      <c r="HX2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HY2" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="HX2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="HY2" s="3" t="s">
+      <c r="HZ2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="IA2" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="HZ2" s="28" t="s">
+      <c r="IB2" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="IA2" s="27" t="s">
+      <c r="IC2" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="IB2" s="28" t="s">
+      <c r="ID2" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="IC2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="ID2" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="IE2" s="3" t="s">
         <v>76</v>
       </c>
       <c r="IF2" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="IG2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="IH2" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="3" spans="1:240" ht="18.75" customHeight="1">
+    <row r="3" spans="1:242" ht="18.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
@@ -3721,23 +3750,23 @@
         <v>186</v>
       </c>
       <c r="EO3" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="EP3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="EP3" s="2" t="s">
+      <c r="EQ3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="EQ3" s="2" t="s">
+      <c r="ER3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="ER3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="ES3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="ET3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="ET3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="EU3" s="2" t="s">
         <v>76</v>
       </c>
@@ -3751,11 +3780,11 @@
         <v>76</v>
       </c>
       <c r="EY3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="EZ3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="EZ3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="FA3" s="2" t="s">
         <v>76</v>
       </c>
@@ -3772,7 +3801,7 @@
         <v>76</v>
       </c>
       <c r="FF3" s="2" t="s">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="FG3" s="2" t="s">
         <v>76</v>
@@ -3817,97 +3846,97 @@
         <v>76</v>
       </c>
       <c r="FU3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="FV3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="FW3" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="FV3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="FW3" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="FX3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="FY3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="FZ3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="GA3" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="FZ3" s="17" t="s">
+      <c r="GB3" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="GA3" s="2" t="s">
+      <c r="GC3" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="GB3" s="2" t="s">
+      <c r="GD3" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="GC3" s="2" t="s">
+      <c r="GE3" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="GD3" s="2" t="s">
+      <c r="GF3" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="GE3" s="2" t="s">
+      <c r="GG3" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="GF3" s="2" t="s">
+      <c r="GH3" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="GG3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="GH3" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="GI3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="GJ3" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="GK3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GL3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="GL3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="GM3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GN3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="GO3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="GN3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GO3" s="2" t="s">
+      <c r="GP3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GQ3" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="GP3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GQ3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="GR3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="GS3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GT3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GU3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="GT3" s="2" t="s">
+      <c r="GV3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="GU3" s="2" t="s">
+      <c r="GW3" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="GV3" s="2" t="s">
+      <c r="GX3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="GW3" s="2">
-        <v>13216</v>
-      </c>
-      <c r="GX3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="GY3" s="2" t="s">
-        <v>84</v>
+      <c r="GY3" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="GZ3" s="2" t="s">
         <v>84</v>
@@ -3916,100 +3945,106 @@
         <v>84</v>
       </c>
       <c r="HB3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="HC3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="HD3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HE3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HF3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="HE3" s="2" t="s">
+      <c r="HG3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="HF3" s="2" t="s">
+      <c r="HH3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="HG3" s="26" t="s">
+      <c r="HI3" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="HH3" s="26" t="s">
+      <c r="HJ3" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="HI3" s="26" t="s">
+      <c r="HK3" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="HJ3" s="3" t="s">
+      <c r="HL3" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="HK3" s="3" t="s">
+      <c r="HM3" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="HL3" s="3" t="s">
+      <c r="HN3" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="HM3" s="27" t="s">
+      <c r="HO3" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="HN3" s="3">
+      <c r="HP3" s="3">
         <v>11100132113</v>
       </c>
-      <c r="HO3" s="3" t="s">
+      <c r="HQ3" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="HP3" s="26" t="s">
+      <c r="HR3" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="HQ3" s="26" t="s">
+      <c r="HS3" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="HR3" s="26" t="s">
+      <c r="HT3" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="HS3" s="3" t="s">
+      <c r="HU3" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="HT3" s="3" t="s">
+      <c r="HV3" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="HU3" s="28" t="s">
+      <c r="HW3" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="HV3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="HW3" s="3" t="s">
+      <c r="HX3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HY3" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="HX3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="HY3" s="3" t="s">
+      <c r="HZ3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="IA3" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="HZ3" s="28" t="s">
+      <c r="IB3" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="IA3" s="27" t="s">
+      <c r="IC3" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="IB3" s="28" t="s">
+      <c r="ID3" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="IC3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="ID3" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="IE3" s="3" t="s">
         <v>76</v>
       </c>
       <c r="IF3" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="IG3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="IH3" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="4" spans="1:240" ht="18.75" customHeight="1">
+    <row r="4" spans="1:242" ht="18.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
@@ -4443,23 +4478,23 @@
         <v>186</v>
       </c>
       <c r="EO4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="EP4" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="EP4" s="2" t="s">
+      <c r="EQ4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="EQ4" s="2" t="s">
+      <c r="ER4" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="ER4" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="ES4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="ET4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="ET4" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="EU4" s="2" t="s">
         <v>76</v>
       </c>
@@ -4473,11 +4508,11 @@
         <v>76</v>
       </c>
       <c r="EY4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="EZ4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="EZ4" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="FA4" s="2" t="s">
         <v>76</v>
       </c>
@@ -4494,7 +4529,7 @@
         <v>76</v>
       </c>
       <c r="FF4" s="2" t="s">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="FG4" s="2" t="s">
         <v>76</v>
@@ -4539,97 +4574,97 @@
         <v>76</v>
       </c>
       <c r="FU4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="FV4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="FW4" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="FV4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="FW4" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="FX4" s="2" t="s">
         <v>70</v>
       </c>
       <c r="FY4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="FZ4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="GA4" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="FZ4" s="17" t="s">
+      <c r="GB4" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="GA4" s="2" t="s">
+      <c r="GC4" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="GB4" s="2" t="s">
+      <c r="GD4" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="GC4" s="2" t="s">
+      <c r="GE4" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="GD4" s="2" t="s">
+      <c r="GF4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="GE4" s="2" t="s">
+      <c r="GG4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="GF4" s="2" t="s">
+      <c r="GH4" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="GG4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="GH4" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="GI4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="GJ4" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="GK4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GL4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="GL4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="GM4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GN4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="GO4" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="GN4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GO4" s="2" t="s">
+      <c r="GP4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GQ4" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="GP4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GQ4" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="GR4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="GS4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GT4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GU4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="GT4" s="2" t="s">
+      <c r="GV4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="GU4" s="2" t="s">
+      <c r="GW4" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="GV4" s="2" t="s">
+      <c r="GX4" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="GW4" s="2">
-        <v>13226</v>
-      </c>
-      <c r="GX4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="GY4" s="2" t="s">
-        <v>84</v>
+      <c r="GY4" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="GZ4" s="2" t="s">
         <v>84</v>
@@ -4638,96 +4673,102 @@
         <v>84</v>
       </c>
       <c r="HB4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="HC4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="HD4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HE4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HF4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="HE4" s="2" t="s">
+      <c r="HG4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="HF4" s="2" t="s">
+      <c r="HH4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="HG4" s="26" t="s">
+      <c r="HI4" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="HH4" s="26" t="s">
+      <c r="HJ4" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="HI4" s="26" t="s">
+      <c r="HK4" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="HJ4" s="3" t="s">
+      <c r="HL4" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="HK4" s="3" t="s">
+      <c r="HM4" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="HL4" s="3" t="s">
+      <c r="HN4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="HM4" s="27" t="s">
+      <c r="HO4" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="HN4" s="3">
+      <c r="HP4" s="3">
         <v>11100132213</v>
       </c>
-      <c r="HO4" s="3" t="s">
+      <c r="HQ4" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="HP4" s="26" t="s">
+      <c r="HR4" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="HQ4" s="26" t="s">
+      <c r="HS4" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="HR4" s="26" t="s">
+      <c r="HT4" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="HS4" s="3" t="s">
+      <c r="HU4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="HT4" s="3" t="s">
+      <c r="HV4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="HU4" s="28" t="s">
+      <c r="HW4" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="HV4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="HW4" s="3" t="s">
+      <c r="HX4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HY4" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="HX4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="HY4" s="3" t="s">
+      <c r="HZ4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="IA4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="HZ4" s="28" t="s">
+      <c r="IB4" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="IA4" s="27" t="s">
+      <c r="IC4" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="IB4" s="28" t="s">
+      <c r="ID4" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="IC4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="ID4" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="IE4" s="3" t="s">
         <v>76</v>
       </c>
       <c r="IF4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="IG4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="IH4" s="3" t="s">
         <v>76</v>
       </c>
     </row>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IPTransit.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IPTransit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="448">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -390,6 +390,24 @@
     <t>PremiseTest1</t>
   </si>
   <si>
+    <t>Jayanagar</t>
+  </si>
+  <si>
+    <t>Jay05</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>KA05</t>
+  </si>
+  <si>
+    <t>ColtTest</t>
+  </si>
+  <si>
+    <t>Colt01</t>
+  </si>
+  <si>
     <t>AU (Australia)</t>
   </si>
   <si>
@@ -519,12 +537,6 @@
     <t>ConfigureInterface_Checkbox</t>
   </si>
   <si>
-    <t>GetAddress_Button</t>
-  </si>
-  <si>
-    <t>IPV6_GetAddressButton</t>
-  </si>
-  <si>
     <t>InterfaceAddressRange_Value</t>
   </si>
   <si>
@@ -555,6 +567,9 @@
     <t>BearerType_Value</t>
   </si>
   <si>
+    <t>64 Kbps</t>
+  </si>
+  <si>
     <t>Bandwidth_Value</t>
   </si>
   <si>
@@ -645,6 +660,9 @@
     <t>Multilink_InterfaceName</t>
   </si>
   <si>
+    <t>8749325</t>
+  </si>
+  <si>
     <t>Juniper MX960</t>
   </si>
   <si>
@@ -681,15 +699,27 @@
     <t>UnitIDValue</t>
   </si>
   <si>
+    <t>33256</t>
+  </si>
+  <si>
     <t>SlotValue</t>
   </si>
   <si>
+    <t>4468</t>
+  </si>
+  <si>
     <t>PicValue</t>
   </si>
   <si>
+    <t>2799</t>
+  </si>
+  <si>
     <t>PortValue</t>
   </si>
   <si>
+    <t>3456</t>
+  </si>
+  <si>
     <t>IVManagement_checkbox</t>
   </si>
   <si>
@@ -906,6 +936,132 @@
     <t>existingCustomer</t>
   </si>
   <si>
+    <t>IPTransit1321</t>
+  </si>
+  <si>
+    <t>iptransitdomain1321.com</t>
+  </si>
+  <si>
+    <t>iptransitocn1321</t>
+  </si>
+  <si>
+    <t>testreference1321</t>
+  </si>
+  <si>
+    <t>iptransitcontact1321</t>
+  </si>
+  <si>
+    <t>iptransit_1321@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_1321</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_1321</t>
+  </si>
+  <si>
+    <t>IPTransitService_1321</t>
+  </si>
+  <si>
+    <t>1321/1321/2020  18:38:00</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1321</t>
+  </si>
+  <si>
+    <t>User_1321</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1321@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit1321</t>
+  </si>
+  <si>
+    <t>Useredit1321</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_1321@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_1321</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_1321</t>
+  </si>
+  <si>
+    <t>IPTransitedit_1321@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransit1322</t>
+  </si>
+  <si>
+    <t>iptransitdomain1322.com</t>
+  </si>
+  <si>
+    <t>iptransitocn1322</t>
+  </si>
+  <si>
+    <t>testreference1322</t>
+  </si>
+  <si>
+    <t>iptransitcontact1322</t>
+  </si>
+  <si>
+    <t>iptransit_1322@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_1322</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_1322</t>
+  </si>
+  <si>
+    <t>IPTransitService_1322</t>
+  </si>
+  <si>
+    <t>1322/1322/2020  18:38:00</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1322</t>
+  </si>
+  <si>
+    <t>User_1322</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1322@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit1322</t>
+  </si>
+  <si>
+    <t>Useredit1322</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_1322@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_1322</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_1322</t>
+  </si>
+  <si>
+    <t>IPTransitedit_1322@gmail.com</t>
+  </si>
+  <si>
+    <t>10.54.43.29</t>
+  </si>
+  <si>
+    <t>10.54.43.30</t>
+  </si>
+  <si>
+    <t>Device346</t>
+  </si>
+  <si>
+    <t>Device847</t>
+  </si>
+  <si>
     <t>CiscoVendor_Bandwidth_Value</t>
   </si>
   <si>
@@ -921,6 +1077,9 @@
     <t>4 Mbps</t>
   </si>
   <si>
+    <t>10.1.1.195</t>
+  </si>
+  <si>
     <t>snm-hks</t>
   </si>
   <si>
@@ -966,9 +1125,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>2.4 Kbps</t>
-  </si>
-  <si>
     <t>dhjuye353</t>
   </si>
   <si>
@@ -981,9 +1137,6 @@
     <t>desc371</t>
   </si>
   <si>
-    <t>TRANSIT-CUSTOMER</t>
-  </si>
-  <si>
     <t>hutkjsgfc</t>
   </si>
   <si>
@@ -1080,145 +1233,136 @@
     <t>10.1.1.22</t>
   </si>
   <si>
-    <t>8749328</t>
-  </si>
-  <si>
-    <t>IPTransit1353</t>
-  </si>
-  <si>
-    <t>iptransitdomain1353.com</t>
-  </si>
-  <si>
-    <t>iptransitocn1353</t>
-  </si>
-  <si>
-    <t>testreference1353</t>
-  </si>
-  <si>
-    <t>iptransitcontact1353</t>
-  </si>
-  <si>
-    <t>iptransit_1353@test.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrder_1353</t>
-  </si>
-  <si>
-    <t>IPTransitRFI_1353</t>
-  </si>
-  <si>
-    <t>IPTransitService_1353</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1353</t>
-  </si>
-  <si>
-    <t>User_1353</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1353@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitUser_edit1353</t>
-  </si>
-  <si>
-    <t>Useredit1353</t>
-  </si>
-  <si>
-    <t>IPTransitUseredit_1353@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrderedit_1353</t>
-  </si>
-  <si>
-    <t>IPTransitRFIedit_1353</t>
-  </si>
-  <si>
-    <t>1353/1353/2020  18:38:00</t>
-  </si>
-  <si>
-    <t>IPTransitedit_1353@gmail.com</t>
-  </si>
-  <si>
-    <t>Device370</t>
-  </si>
-  <si>
-    <t>10.29.54.54</t>
-  </si>
-  <si>
-    <t>Deviceedit476</t>
-  </si>
-  <si>
-    <t>10.26.84.68</t>
-  </si>
-  <si>
-    <t>IPTransit1354</t>
-  </si>
-  <si>
-    <t>iptransitdomain1354.com</t>
-  </si>
-  <si>
-    <t>iptransitocn1354</t>
-  </si>
-  <si>
-    <t>testreference1354</t>
-  </si>
-  <si>
-    <t>iptransitcontact1354</t>
-  </si>
-  <si>
-    <t>iptransit_1354@test.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrder_1354</t>
-  </si>
-  <si>
-    <t>IPTransitRFI_1354</t>
-  </si>
-  <si>
-    <t>IPTransitService_1354</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1354</t>
-  </si>
-  <si>
-    <t>User_1354</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1354@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitUser_edit1354</t>
-  </si>
-  <si>
-    <t>Useredit1354</t>
-  </si>
-  <si>
-    <t>IPTransitUseredit_1354@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrderedit_1354</t>
-  </si>
-  <si>
-    <t>IPTransitRFIedit_1354</t>
-  </si>
-  <si>
-    <t>1354/1354/2020  18:38:00</t>
-  </si>
-  <si>
-    <t>IPTransitedit_1354@gmail.com</t>
-  </si>
-  <si>
-    <t>Device371</t>
-  </si>
-  <si>
-    <t>10.29.54.55</t>
-  </si>
-  <si>
-    <t>Deviceedit477</t>
-  </si>
-  <si>
-    <t>10.26.84.69</t>
+    <t>Cisco_InterfaceName</t>
+  </si>
+  <si>
+    <t>Edit_CiscoInterfaceName</t>
+  </si>
+  <si>
+    <t>Edit_IPSubnetIPv6Value</t>
+  </si>
+  <si>
+    <t>Edit_IPSubnetIPv4Value</t>
+  </si>
+  <si>
+    <t>IPTransit1357</t>
+  </si>
+  <si>
+    <t>iptransitdomain1357.com</t>
+  </si>
+  <si>
+    <t>iptransitocn1357</t>
+  </si>
+  <si>
+    <t>testreference1357</t>
+  </si>
+  <si>
+    <t>iptransitcontact1357</t>
+  </si>
+  <si>
+    <t>iptransit_1357@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_1357</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_1357</t>
+  </si>
+  <si>
+    <t>IPTransitService_1357</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1357</t>
+  </si>
+  <si>
+    <t>User_1357</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1357@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit1357</t>
+  </si>
+  <si>
+    <t>Useredit1357</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_1357@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_1357</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_1357</t>
+  </si>
+  <si>
+    <t>1357/1357/2020  18:38:00</t>
+  </si>
+  <si>
+    <t>IPTransitedit_1357@gmail.com</t>
+  </si>
+  <si>
+    <t>10.23.25.62/27</t>
+  </si>
+  <si>
+    <t>Multilink_InterfaceAddressRange_Value</t>
+  </si>
+  <si>
+    <t>Multilink_EIPAllocation_City</t>
+  </si>
+  <si>
+    <t>Multilink_EIPAllocation_SubnetSize</t>
+  </si>
+  <si>
+    <t>Multilink_ExistingAddressRangeIPv4selection</t>
+  </si>
+  <si>
+    <t>Multilink_ExistingAddressIPv4DropdownValue</t>
+  </si>
+  <si>
+    <t>Multilink_NewAddressRangeIpv4selection</t>
+  </si>
+  <si>
+    <t>Multilink_NewInterfaceAddressRangeIPv4</t>
+  </si>
+  <si>
+    <t>Multilink_ExistingAddressRangeIPv6selection</t>
+  </si>
+  <si>
+    <t>Multilink_ExistingAddressIPv6Value</t>
+  </si>
+  <si>
+    <t>Multilink_NewAddressRangeIpv6selection</t>
+  </si>
+  <si>
+    <t>Multilink_NewInterfaceAddressRangeIPv6</t>
+  </si>
+  <si>
+    <t>Multilink_EIPAllocation_IPv6_SubnetSize</t>
+  </si>
+  <si>
+    <t>Multilink_EIPAllocation_AvailableBlocksValue</t>
+  </si>
+  <si>
+    <t>26788</t>
+  </si>
+  <si>
+    <t>56740</t>
+  </si>
+  <si>
+    <t>Ipdevice531</t>
+  </si>
+  <si>
+    <t>10.29.54.65</t>
+  </si>
+  <si>
+    <t>Ipdeviceedit485</t>
+  </si>
+  <si>
+    <t>10.26.84.78</t>
+  </si>
+  <si>
+    <t>367484</t>
   </si>
 </sst>
 </file>
@@ -1631,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HZ4"/>
+  <dimension ref="A1:IO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DJ3" sqref="DJ3"/>
+    <sheetView tabSelected="1" topLeftCell="GU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="GV3" sqref="GV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1843,32 +1987,37 @@
     <col min="215" max="215" width="33.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="216" max="216" width="30.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="217" max="217" width="22.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="218" max="243" width="9.140625" style="2" collapsed="1"/>
+    <col min="218" max="234" width="9.140625" style="2" collapsed="1"/>
+    <col min="235" max="236" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="237" max="237" width="28.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="238" max="243" width="9.140625" style="2" collapsed="1"/>
     <col min="244" max="244" width="32.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="245" max="245" width="25.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="246" max="265" width="9.140625" style="2" collapsed="1"/>
+    <col min="246" max="248" width="9.140625" style="2" collapsed="1"/>
+    <col min="249" max="249" width="43" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="250" max="265" width="9.140625" style="2" collapsed="1"/>
     <col min="266" max="266" width="27.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="267" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:234" ht="27" customHeight="1">
+    <row r="1" spans="1:249" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -2066,76 +2215,76 @@
         <v>77</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="CR1" s="8" t="s">
         <v>89</v>
@@ -2150,7 +2299,7 @@
         <v>92</v>
       </c>
       <c r="CV1" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="CW1" s="12" t="s">
         <v>96</v>
@@ -2186,7 +2335,7 @@
         <v>106</v>
       </c>
       <c r="DH1" s="14" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="DI1" s="14" t="s">
         <v>107</v>
@@ -2234,333 +2383,378 @@
         <v>121</v>
       </c>
       <c r="DX1" s="14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="DY1" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="DZ1" s="14" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="EA1" s="14" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="EB1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="EC1" s="14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="ED1" s="14" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="EE1" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="EF1" s="14" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="EG1" s="14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="EH1" s="14" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="EI1" s="14" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="EJ1" s="14" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="EK1" s="14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="EL1" s="14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="EM1" s="14" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="EN1" s="14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="EO1" s="14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="EP1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="EQ1" s="14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="ER1" s="14" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="ES1" s="14" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="ET1" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="EU1" s="14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="EV1" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="EW1" s="14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="EX1" s="14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="EY1" s="14" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="EZ1" s="14" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="FA1" s="14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="FB1" s="14" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="FC1" s="14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="FD1" s="14" t="s">
-        <v>166</v>
+        <v>404</v>
       </c>
       <c r="FE1" s="14" t="s">
-        <v>167</v>
+        <v>405</v>
       </c>
       <c r="FF1" s="14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="FG1" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="FH1" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="FI1" s="14" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="FJ1" s="14" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="FK1" s="14" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="FL1" s="14" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="FM1" s="14" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="FN1" s="14" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="FO1" s="14" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="FP1" s="14" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="FQ1" s="14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="FR1" s="14" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="FS1" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="FT1" s="14" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="FU1" s="14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="FV1" s="14" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="FW1" s="14" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="FX1" s="14" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="FY1" s="14" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="FZ1" s="14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="GA1" s="14" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="GB1" s="14" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="GC1" s="14" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="GD1" s="14" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="GE1" s="14" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="GF1" s="14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="GG1" s="14" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="GH1" s="14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="GI1" s="14" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="GJ1" s="14" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="GK1" s="14" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="GL1" s="14" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="GM1" s="14" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="GN1" s="14" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="GO1" s="14" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="GP1" s="14" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="GQ1" s="14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="GR1" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="GS1" s="14" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="GT1" s="14" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="GU1" s="14" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="GV1" s="14" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="GW1" s="14" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="GX1" s="14" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="GY1" s="14" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="GZ1" s="14" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="HA1" s="14" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="HB1" s="14" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="HC1" s="14" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="HD1" s="14" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="HE1" s="14" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="HF1" s="14" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="HG1" s="14" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="HH1" s="14" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="HI1" s="14" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="HJ1" s="14" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="HK1" s="14" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="HL1" s="14" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="HM1" s="14" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="HN1" s="14" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="HO1" s="14" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="HP1" s="14" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="HQ1" s="14" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="HV1" s="14" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="HW1" s="14" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="HX1" s="14" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="HY1" s="14" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="HZ1" s="14" t="s">
-        <v>249</v>
+        <v>259</v>
+      </c>
+      <c r="IA1" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="IB1" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="IC1" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="ID1" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="IE1" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="IF1" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="IG1" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="IH1" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="II1" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="IJ1" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="IK1" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="IL1" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="IM1" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="IN1" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="IO1" s="14" t="s">
+        <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:234" ht="18" customHeight="1">
+    <row r="2" spans="1:249" ht="18" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>86</v>
@@ -2569,37 +2763,37 @@
         <v>61</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>4</v>
@@ -2620,22 +2814,22 @@
         <v>5</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>24</v>
@@ -2647,7 +2841,7 @@
         <v>67</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>86</v>
@@ -2674,10 +2868,10 @@
         <v>36</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>74</v>
@@ -2686,43 +2880,43 @@
         <v>41</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="BE2" s="6" t="s">
         <v>62</v>
@@ -2737,16 +2931,16 @@
         <v>57</v>
       </c>
       <c r="BI2" s="20" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="BJ2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BK2" s="5" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="BM2" s="2" t="s">
         <v>76</v>
@@ -2764,70 +2958,70 @@
         <v>86</v>
       </c>
       <c r="BR2" s="21" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="BS2" s="21" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="BT2" s="21" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="BX2" s="22" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="BY2" s="3">
-        <v>11100135413</v>
+        <v>11100135713</v>
       </c>
       <c r="BZ2" s="3" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="CA2" s="21" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="CB2" s="21" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="CC2" s="21" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="CD2" s="3" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="CE2" s="3" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="CF2" s="23" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="CG2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="CH2" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="CI2" s="3" t="s">
         <v>76</v>
       </c>
       <c r="CJ2" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="CK2" s="23" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="CL2" s="22" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="CM2" s="23" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="CN2" s="3" t="s">
         <v>76</v>
@@ -2854,10 +3048,10 @@
         <v>95</v>
       </c>
       <c r="CV2" s="11" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="CW2" s="13" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CX2" s="15" t="s">
         <v>86</v>
@@ -2872,37 +3066,37 @@
         <v>86</v>
       </c>
       <c r="DB2" s="15" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="DC2" s="15" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="DD2" s="15" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="DE2" s="15" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="DF2" s="15" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="DG2" s="15" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="DH2" s="15" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="DI2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="DJ2" s="17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="DK2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="DL2" s="16" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="DM2" s="16" t="s">
         <v>4</v>
@@ -2914,43 +3108,43 @@
         <v>61</v>
       </c>
       <c r="DP2" s="16" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="DQ2" s="16" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="DR2" s="16" t="s">
         <v>61</v>
       </c>
       <c r="DS2" s="16" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="DT2" s="16" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="DU2" s="16" t="s">
         <v>61</v>
       </c>
       <c r="DV2" s="16" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="DW2" s="16" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="DX2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="EC2" s="2" t="s">
         <v>61</v>
@@ -2965,19 +3159,19 @@
         <v>61</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="EL2" s="2" t="s">
         <v>88</v>
@@ -2986,13 +3180,13 @@
         <v>61</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="EO2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="EQ2" s="2" t="s">
         <v>61</v>
@@ -3010,139 +3204,139 @@
         <v>61</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="FB2" s="17" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="FC2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>84</v>
+        <v>441</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>70</v>
+        <v>442</v>
       </c>
       <c r="FF2" s="19" t="s">
         <v>76</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="FH2" s="18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="FI2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="FK2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="FO2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="FY2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="FZ2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="GA2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="GB2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GC2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="GD2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="GE2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="GF2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="GG2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="GH2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GI2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="GJ2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="GK2" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="GL2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GM2" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="GA2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="GB2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="GC2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="GD2" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="GE2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="GF2" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="GG2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="GH2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="GI2" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="GJ2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="GK2" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="GL2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GM2" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="GN2" s="2" t="s">
-        <v>76</v>
+      <c r="GN2" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="GO2" s="2" t="s">
         <v>76</v>
@@ -3151,28 +3345,28 @@
         <v>76</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="GR2" s="17" t="s">
-        <v>320</v>
+        <v>61</v>
+      </c>
+      <c r="GR2" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="GT2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="GY2" s="2" t="s">
         <v>70</v>
@@ -3184,28 +3378,28 @@
         <v>61</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="HC2" s="17" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="HG2" s="2" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="HJ2" s="2" t="s">
         <v>70</v>
@@ -3223,13 +3417,13 @@
         <v>76</v>
       </c>
       <c r="HO2" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="HP2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="HQ2" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="HR2" s="2" t="s">
         <v>76</v>
@@ -3247,7 +3441,7 @@
         <v>84</v>
       </c>
       <c r="HW2" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="HX2" s="2" t="s">
         <v>84</v>
@@ -3256,15 +3450,60 @@
         <v>84</v>
       </c>
       <c r="HZ2" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="IA2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="IB2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="IC2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="ID2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="IE2" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="IF2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IG2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="IH2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="II2" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="IJ2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IK2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="IL2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IM2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="IN2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="IO2" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:234" ht="18" customHeight="1">
+    <row r="3" spans="1:249" ht="18.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>86</v>
@@ -3273,37 +3512,37 @@
         <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>4</v>
@@ -3324,22 +3563,22 @@
         <v>5</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>24</v>
@@ -3351,7 +3590,7 @@
         <v>67</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>86</v>
@@ -3378,10 +3617,10 @@
         <v>36</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>74</v>
@@ -3390,43 +3629,43 @@
         <v>41</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AY3" s="5" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="BE3" s="6" t="s">
         <v>62</v>
@@ -3435,22 +3674,22 @@
         <v>63</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="BH3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="BI3" s="20" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="BJ3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BK3" s="5" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="BM3" s="2" t="s">
         <v>76</v>
@@ -3468,70 +3707,70 @@
         <v>86</v>
       </c>
       <c r="BR3" s="21" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="BS3" s="21" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="BT3" s="21" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="BV3" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="BW3" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="BX3" s="22" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="BY3" s="3">
-        <v>11100135313</v>
+        <v>11100132113</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="CA3" s="21" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="CB3" s="21" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="CC3" s="21" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="CD3" s="3" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="CE3" s="3" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="CF3" s="23" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="CG3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="CH3" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="CI3" s="3" t="s">
         <v>76</v>
       </c>
       <c r="CJ3" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="CK3" s="23" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="CL3" s="22" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="CM3" s="23" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="CN3" s="3" t="s">
         <v>76</v>
@@ -3558,55 +3797,55 @@
         <v>95</v>
       </c>
       <c r="CV3" s="15" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="CW3" s="15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CX3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="CY3" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="CZ3" s="15" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="DA3" s="15" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="DB3" s="15" t="s">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="DC3" s="15" t="s">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="DD3" s="15" t="s">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="DE3" s="15" t="s">
-        <v>302</v>
+        <v>88</v>
       </c>
       <c r="DF3" s="15" t="s">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="DG3" s="15" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="DH3" s="15" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="DI3" s="16" t="s">
         <v>86</v>
       </c>
       <c r="DJ3" s="17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="DK3" s="16" t="s">
         <v>86</v>
       </c>
       <c r="DL3" s="16" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="DM3" s="16" t="s">
         <v>4</v>
@@ -3618,232 +3857,229 @@
         <v>61</v>
       </c>
       <c r="DP3" s="16" t="s">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="DQ3" s="16" t="s">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="DR3" s="16" t="s">
         <v>61</v>
       </c>
       <c r="DS3" s="16" t="s">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c r="DT3" s="16" t="s">
-        <v>324</v>
+        <v>126</v>
       </c>
       <c r="DU3" s="16" t="s">
         <v>61</v>
       </c>
       <c r="DV3" s="16" t="s">
-        <v>325</v>
+        <v>127</v>
       </c>
       <c r="DW3" s="16" t="s">
-        <v>326</v>
+        <v>128</v>
       </c>
       <c r="DX3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="DY3" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="DZ3" s="2" t="s">
-        <v>375</v>
+        <v>88</v>
       </c>
       <c r="EA3" s="2" t="s">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="EB3" s="2" t="s">
-        <v>376</v>
+        <v>88</v>
       </c>
       <c r="EC3" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="ED3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="EE3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="EF3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="EE3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="EF3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="EG3" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="EH3" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="EI3" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="EJ3" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="EK3" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="EL3" s="2" t="s">
         <v>88</v>
       </c>
       <c r="EM3" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="EN3" s="2" t="s">
-        <v>306</v>
+        <v>88</v>
       </c>
       <c r="EO3" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="EP3" s="2" t="s">
-        <v>307</v>
+        <v>88</v>
       </c>
       <c r="EQ3" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="ER3" s="2" t="s">
         <v>88</v>
       </c>
       <c r="ES3" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="ET3" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="EU3" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="EV3" s="2" t="s">
-        <v>327</v>
+        <v>88</v>
       </c>
       <c r="EW3" s="2" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="EX3" s="2" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="EY3" s="2" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="EZ3" s="2" t="s">
-        <v>331</v>
+        <v>88</v>
       </c>
       <c r="FA3" s="2" t="s">
-        <v>332</v>
+        <v>88</v>
       </c>
       <c r="FB3" s="17" t="s">
         <v>352</v>
       </c>
       <c r="FC3" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="FD3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="FE3" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="FF3" s="19" t="s">
         <v>76</v>
       </c>
       <c r="FG3" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="FH3" s="18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="FI3" s="2" t="s">
         <v>86</v>
       </c>
       <c r="FJ3" s="2" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="FK3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="FL3" s="2" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="FM3" s="2" t="s">
         <v>86</v>
       </c>
       <c r="FN3" s="2" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="FO3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="FP3" s="2" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="FQ3" s="2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="FR3" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="FS3" s="2" t="s">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="FT3" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="FU3" s="2" t="s">
-        <v>333</v>
+        <v>182</v>
       </c>
       <c r="FV3" s="2" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="FW3" s="2" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="FX3" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="FY3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="FZ3" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="GA3" s="2" t="s">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="GB3" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="GC3" s="2" t="s">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="GD3" s="2" t="s">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="GE3" s="2" t="s">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="GF3" s="2" t="s">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="GG3" s="2" t="s">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="GH3" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="GI3" s="2" t="s">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="GJ3" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="GK3" s="17" t="s">
-        <v>351</v>
+        <v>76</v>
+      </c>
+      <c r="GK3" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="GL3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="GM3" s="17" t="s">
-        <v>315</v>
+      <c r="GM3" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="GN3" s="2" t="s">
         <v>76</v>
@@ -3855,28 +4091,28 @@
         <v>76</v>
       </c>
       <c r="GQ3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="GR3" s="17" t="s">
-        <v>320</v>
+        <v>76</v>
+      </c>
+      <c r="GR3" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="GS3" s="2" t="s">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="GT3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="GU3" s="2" t="s">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="GV3" s="2" t="s">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="GW3" s="2" t="s">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="GX3" s="2" t="s">
-        <v>353</v>
+        <v>213</v>
       </c>
       <c r="GY3" s="2" t="s">
         <v>70</v>
@@ -3885,34 +4121,34 @@
         <v>70</v>
       </c>
       <c r="HA3" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="HB3" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="HC3" s="17" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="HD3" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="HE3" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="HF3" s="2" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="HG3" s="2" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
       <c r="HH3" s="2" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="HI3" s="2" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="HJ3" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="HK3" s="2" t="s">
         <v>70</v>
@@ -3927,13 +4163,13 @@
         <v>76</v>
       </c>
       <c r="HO3" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="HP3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="HQ3" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="HR3" s="2" t="s">
         <v>76</v>
@@ -3951,7 +4187,7 @@
         <v>84</v>
       </c>
       <c r="HW3" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="HX3" s="2" t="s">
         <v>84</v>
@@ -3962,13 +4198,52 @@
       <c r="HZ3" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="IC3" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="ID3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="IE3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="IF3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="IG3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="IH3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="II3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="IJ3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="IK3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="IL3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IM3" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="IN3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="IO3" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="4" spans="1:234" ht="18" customHeight="1">
+    <row r="4" spans="1:249" ht="18.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>86</v>
@@ -3977,37 +4252,37 @@
         <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>4</v>
@@ -4028,22 +4303,22 @@
         <v>5</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>24</v>
@@ -4055,7 +4330,7 @@
         <v>67</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>86</v>
@@ -4082,10 +4357,10 @@
         <v>36</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="AP4" s="2" t="s">
         <v>74</v>
@@ -4094,43 +4369,43 @@
         <v>41</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AY4" s="5" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="AZ4" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="BC4" s="2" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="BD4" s="2" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="BE4" s="6" t="s">
         <v>62</v>
@@ -4139,22 +4414,22 @@
         <v>63</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="BH4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="BI4" s="20" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="BJ4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BK4" s="5" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="BL4" s="2" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="BM4" s="2" t="s">
         <v>76</v>
@@ -4172,70 +4447,70 @@
         <v>86</v>
       </c>
       <c r="BR4" s="21" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="BS4" s="21" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="BT4" s="21" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="BU4" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="BV4" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="BW4" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="BX4" s="22" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="BY4" s="3">
-        <v>11100135313</v>
+        <v>11100132213</v>
       </c>
       <c r="BZ4" s="3" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="CA4" s="21" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="CB4" s="21" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="CC4" s="21" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="CD4" s="3" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="CE4" s="3" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="CF4" s="23" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="CG4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="CH4" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="CI4" s="3" t="s">
         <v>76</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="CK4" s="23" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="CL4" s="22" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="CM4" s="23" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="CN4" s="3" t="s">
         <v>76</v>
@@ -4262,55 +4537,55 @@
         <v>95</v>
       </c>
       <c r="CV4" s="15" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="CW4" s="15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CX4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="CY4" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="CZ4" s="15" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="DA4" s="15" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="DB4" s="15" t="s">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="DC4" s="15" t="s">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="DD4" s="15" t="s">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="DE4" s="15" t="s">
-        <v>302</v>
+        <v>88</v>
       </c>
       <c r="DF4" s="15" t="s">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="DG4" s="15" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="DH4" s="15" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="DI4" s="16" t="s">
         <v>86</v>
       </c>
       <c r="DJ4" s="17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="DK4" s="16" t="s">
         <v>86</v>
       </c>
       <c r="DL4" s="16" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="DM4" s="16" t="s">
         <v>4</v>
@@ -4322,232 +4597,229 @@
         <v>61</v>
       </c>
       <c r="DP4" s="16" t="s">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="DQ4" s="16" t="s">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="DR4" s="16" t="s">
         <v>61</v>
       </c>
       <c r="DS4" s="16" t="s">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c r="DT4" s="16" t="s">
-        <v>324</v>
+        <v>126</v>
       </c>
       <c r="DU4" s="16" t="s">
         <v>61</v>
       </c>
       <c r="DV4" s="16" t="s">
-        <v>325</v>
+        <v>127</v>
       </c>
       <c r="DW4" s="16" t="s">
-        <v>326</v>
+        <v>128</v>
       </c>
       <c r="DX4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="DY4" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="DZ4" s="2" t="s">
-        <v>375</v>
+        <v>88</v>
       </c>
       <c r="EA4" s="2" t="s">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="EB4" s="2" t="s">
-        <v>376</v>
+        <v>88</v>
       </c>
       <c r="EC4" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="ED4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="EE4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="EF4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="EE4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="EF4" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="EG4" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="EH4" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="EI4" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="EJ4" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="EK4" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="EL4" s="2" t="s">
         <v>88</v>
       </c>
       <c r="EM4" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="EN4" s="2" t="s">
-        <v>306</v>
+        <v>88</v>
       </c>
       <c r="EO4" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="EP4" s="2" t="s">
-        <v>307</v>
+        <v>88</v>
       </c>
       <c r="EQ4" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="ER4" s="2" t="s">
         <v>88</v>
       </c>
       <c r="ES4" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="ET4" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="EU4" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="EV4" s="2" t="s">
-        <v>327</v>
+        <v>88</v>
       </c>
       <c r="EW4" s="2" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="EX4" s="2" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="EY4" s="2" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="EZ4" s="2" t="s">
-        <v>331</v>
+        <v>88</v>
       </c>
       <c r="FA4" s="2" t="s">
-        <v>332</v>
+        <v>88</v>
       </c>
       <c r="FB4" s="17" t="s">
         <v>352</v>
       </c>
       <c r="FC4" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="FD4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="FE4" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="FF4" s="19" t="s">
         <v>76</v>
       </c>
       <c r="FG4" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="FH4" s="18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="FI4" s="2" t="s">
         <v>86</v>
       </c>
       <c r="FJ4" s="2" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="FK4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="FL4" s="2" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="FM4" s="2" t="s">
         <v>86</v>
       </c>
       <c r="FN4" s="2" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="FO4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="FP4" s="2" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="FQ4" s="2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="FR4" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="FS4" s="2" t="s">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="FT4" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="FU4" s="2" t="s">
-        <v>333</v>
+        <v>182</v>
       </c>
       <c r="FV4" s="2" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="FW4" s="2" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="FX4" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="FY4" s="2" t="s">
         <v>70</v>
       </c>
       <c r="FZ4" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="GA4" s="2" t="s">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="GB4" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="GC4" s="2" t="s">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="GD4" s="2" t="s">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="GE4" s="2" t="s">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="GF4" s="2" t="s">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="GG4" s="2" t="s">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="GH4" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="GI4" s="2" t="s">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="GJ4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="GK4" s="17" t="s">
-        <v>351</v>
+        <v>76</v>
+      </c>
+      <c r="GK4" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="GL4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="GM4" s="17" t="s">
-        <v>315</v>
+      <c r="GM4" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="GN4" s="2" t="s">
         <v>76</v>
@@ -4559,28 +4831,28 @@
         <v>76</v>
       </c>
       <c r="GQ4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="GR4" s="17" t="s">
-        <v>320</v>
+        <v>76</v>
+      </c>
+      <c r="GR4" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="GS4" s="2" t="s">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="GT4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="GU4" s="2" t="s">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="GV4" s="2" t="s">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="GW4" s="2" t="s">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="GX4" s="2" t="s">
-        <v>353</v>
+        <v>213</v>
       </c>
       <c r="GY4" s="2" t="s">
         <v>70</v>
@@ -4589,34 +4861,34 @@
         <v>70</v>
       </c>
       <c r="HA4" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="HB4" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="HC4" s="17" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="HD4" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="HE4" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="HF4" s="2" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="HG4" s="2" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
       <c r="HH4" s="2" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="HI4" s="2" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="HJ4" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="HK4" s="2" t="s">
         <v>70</v>
@@ -4631,13 +4903,13 @@
         <v>76</v>
       </c>
       <c r="HO4" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="HP4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="HQ4" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="HR4" s="2" t="s">
         <v>76</v>
@@ -4655,7 +4927,7 @@
         <v>84</v>
       </c>
       <c r="HW4" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="HX4" s="2" t="s">
         <v>84</v>
@@ -4665,6 +4937,45 @@
       </c>
       <c r="HZ4" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="IC4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="ID4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="IE4" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="IF4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="IG4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="IH4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="II4" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="IJ4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="IK4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="IL4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IM4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="IN4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="IO4" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4674,11 +4985,11 @@
     <hyperlink ref="AY2" r:id="rId3" display="IPTransitUseredit_06@gmail.com"/>
     <hyperlink ref="BK2" r:id="rId4" display="IPTransitedit_06@gmail.com"/>
     <hyperlink ref="AR3" r:id="rId5" display="IPTransitUser_06@gmail.com"/>
-    <hyperlink ref="M3" r:id="rId6" display="iptransit_1330@test.com"/>
+    <hyperlink ref="M3" r:id="rId6" display="iptransit_06@test.com"/>
     <hyperlink ref="AY3" r:id="rId7" display="IPTransitUseredit_06@gmail.com"/>
     <hyperlink ref="BK3" r:id="rId8" display="IPTransitedit_06@gmail.com"/>
     <hyperlink ref="AR4" r:id="rId9" display="IPTransitUser_06@gmail.com"/>
-    <hyperlink ref="M4" r:id="rId10" display="iptransit_1330@test.com"/>
+    <hyperlink ref="M4" r:id="rId10" display="iptransit_06@test.com"/>
     <hyperlink ref="AY4" r:id="rId11" display="IPTransitUseredit_06@gmail.com"/>
     <hyperlink ref="BK4" r:id="rId12" display="IPTransitedit_06@gmail.com"/>
   </hyperlinks>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IPTransit.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IPTransit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="517">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -390,24 +390,6 @@
     <t>PremiseTest1</t>
   </si>
   <si>
-    <t>Jayanagar</t>
-  </si>
-  <si>
-    <t>Jay05</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>KA05</t>
-  </si>
-  <si>
-    <t>ColtTest</t>
-  </si>
-  <si>
-    <t>Colt01</t>
-  </si>
-  <si>
     <t>AU (Australia)</t>
   </si>
   <si>
@@ -609,9 +591,6 @@
     <t>BGPPassword_Value</t>
   </si>
   <si>
-    <t>TRANSCUST-DEFAULT</t>
-  </si>
-  <si>
     <t>Edit_ConfigureInterface_Checkbox</t>
   </si>
   <si>
@@ -660,9 +639,6 @@
     <t>Multilink_InterfaceName</t>
   </si>
   <si>
-    <t>8749325</t>
-  </si>
-  <si>
     <t>Juniper MX960</t>
   </si>
   <si>
@@ -699,27 +675,15 @@
     <t>UnitIDValue</t>
   </si>
   <si>
-    <t>33256</t>
-  </si>
-  <si>
     <t>SlotValue</t>
   </si>
   <si>
-    <t>4468</t>
-  </si>
-  <si>
     <t>PicValue</t>
   </si>
   <si>
-    <t>2799</t>
-  </si>
-  <si>
     <t>PortValue</t>
   </si>
   <si>
-    <t>3456</t>
-  </si>
-  <si>
     <t>IVManagement_checkbox</t>
   </si>
   <si>
@@ -918,9 +882,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>newCustomerCreation</t>
   </si>
   <si>
@@ -936,132 +897,6 @@
     <t>existingCustomer</t>
   </si>
   <si>
-    <t>IPTransit1321</t>
-  </si>
-  <si>
-    <t>iptransitdomain1321.com</t>
-  </si>
-  <si>
-    <t>iptransitocn1321</t>
-  </si>
-  <si>
-    <t>testreference1321</t>
-  </si>
-  <si>
-    <t>iptransitcontact1321</t>
-  </si>
-  <si>
-    <t>iptransit_1321@test.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrder_1321</t>
-  </si>
-  <si>
-    <t>IPTransitRFI_1321</t>
-  </si>
-  <si>
-    <t>IPTransitService_1321</t>
-  </si>
-  <si>
-    <t>1321/1321/2020  18:38:00</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1321</t>
-  </si>
-  <si>
-    <t>User_1321</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1321@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitUser_edit1321</t>
-  </si>
-  <si>
-    <t>Useredit1321</t>
-  </si>
-  <si>
-    <t>IPTransitUseredit_1321@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrderedit_1321</t>
-  </si>
-  <si>
-    <t>IPTransitRFIedit_1321</t>
-  </si>
-  <si>
-    <t>IPTransitedit_1321@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransit1322</t>
-  </si>
-  <si>
-    <t>iptransitdomain1322.com</t>
-  </si>
-  <si>
-    <t>iptransitocn1322</t>
-  </si>
-  <si>
-    <t>testreference1322</t>
-  </si>
-  <si>
-    <t>iptransitcontact1322</t>
-  </si>
-  <si>
-    <t>iptransit_1322@test.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrder_1322</t>
-  </si>
-  <si>
-    <t>IPTransitRFI_1322</t>
-  </si>
-  <si>
-    <t>IPTransitService_1322</t>
-  </si>
-  <si>
-    <t>1322/1322/2020  18:38:00</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1322</t>
-  </si>
-  <si>
-    <t>User_1322</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1322@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitUser_edit1322</t>
-  </si>
-  <si>
-    <t>Useredit1322</t>
-  </si>
-  <si>
-    <t>IPTransitUseredit_1322@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrderedit_1322</t>
-  </si>
-  <si>
-    <t>IPTransitRFIedit_1322</t>
-  </si>
-  <si>
-    <t>IPTransitedit_1322@gmail.com</t>
-  </si>
-  <si>
-    <t>10.54.43.29</t>
-  </si>
-  <si>
-    <t>10.54.43.30</t>
-  </si>
-  <si>
-    <t>Device346</t>
-  </si>
-  <si>
-    <t>Device847</t>
-  </si>
-  <si>
     <t>CiscoVendor_Bandwidth_Value</t>
   </si>
   <si>
@@ -1077,9 +912,6 @@
     <t>4 Mbps</t>
   </si>
   <si>
-    <t>10.1.1.195</t>
-  </si>
-  <si>
     <t>snm-hks</t>
   </si>
   <si>
@@ -1203,9 +1035,6 @@
     <t>10.23.38.45</t>
   </si>
   <si>
-    <t>10.23.25.84/27</t>
-  </si>
-  <si>
     <t>10.27.36.58</t>
   </si>
   <si>
@@ -1230,9 +1059,6 @@
     <t>E1</t>
   </si>
   <si>
-    <t>10.1.1.22</t>
-  </si>
-  <si>
     <t>Cisco_InterfaceName</t>
   </si>
   <si>
@@ -1245,63 +1071,6 @@
     <t>Edit_IPSubnetIPv4Value</t>
   </si>
   <si>
-    <t>IPTransit1357</t>
-  </si>
-  <si>
-    <t>iptransitdomain1357.com</t>
-  </si>
-  <si>
-    <t>iptransitocn1357</t>
-  </si>
-  <si>
-    <t>testreference1357</t>
-  </si>
-  <si>
-    <t>iptransitcontact1357</t>
-  </si>
-  <si>
-    <t>iptransit_1357@test.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrder_1357</t>
-  </si>
-  <si>
-    <t>IPTransitRFI_1357</t>
-  </si>
-  <si>
-    <t>IPTransitService_1357</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1357</t>
-  </si>
-  <si>
-    <t>User_1357</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1357@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitUser_edit1357</t>
-  </si>
-  <si>
-    <t>Useredit1357</t>
-  </si>
-  <si>
-    <t>IPTransitUseredit_1357@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrderedit_1357</t>
-  </si>
-  <si>
-    <t>IPTransitRFIedit_1357</t>
-  </si>
-  <si>
-    <t>1357/1357/2020  18:38:00</t>
-  </si>
-  <si>
-    <t>IPTransitedit_1357@gmail.com</t>
-  </si>
-  <si>
     <t>10.23.25.62/27</t>
   </si>
   <si>
@@ -1344,25 +1113,463 @@
     <t>Multilink_EIPAllocation_AvailableBlocksValue</t>
   </si>
   <si>
-    <t>26788</t>
-  </si>
-  <si>
-    <t>56740</t>
-  </si>
-  <si>
-    <t>Ipdevice531</t>
-  </si>
-  <si>
-    <t>10.29.54.65</t>
-  </si>
-  <si>
-    <t>Ipdeviceedit485</t>
-  </si>
-  <si>
-    <t>10.26.84.78</t>
-  </si>
-  <si>
-    <t>367484</t>
+    <t>367486</t>
+  </si>
+  <si>
+    <t>11/10/2020  18:38:00</t>
+  </si>
+  <si>
+    <t>13/11/2020  18:38:00</t>
+  </si>
+  <si>
+    <t>url for the product</t>
+  </si>
+  <si>
+    <t>10.15.12.120</t>
+  </si>
+  <si>
+    <t>editOrderSelection</t>
+  </si>
+  <si>
+    <t>changeOrderSelection_newOrder</t>
+  </si>
+  <si>
+    <t>changeOrderSelection_existingOrder</t>
+  </si>
+  <si>
+    <t>ChangeOrder_existingOrderNumber</t>
+  </si>
+  <si>
+    <t>IPTransit1705</t>
+  </si>
+  <si>
+    <t>iptransitdomain1705.com</t>
+  </si>
+  <si>
+    <t>iptransitocn1705</t>
+  </si>
+  <si>
+    <t>testreference1705</t>
+  </si>
+  <si>
+    <t>iptransitcontact1705</t>
+  </si>
+  <si>
+    <t>iptransit_1705@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_1705</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_1705</t>
+  </si>
+  <si>
+    <t>IPTransitService_1705</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1705</t>
+  </si>
+  <si>
+    <t>User_1705</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1705@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit1705</t>
+  </si>
+  <si>
+    <t>Useredit1705</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_1705@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_1705</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_1705</t>
+  </si>
+  <si>
+    <t>IPTransitedit_1705@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransit1812</t>
+  </si>
+  <si>
+    <t>iptransitdomain1812.com</t>
+  </si>
+  <si>
+    <t>iptransitocn1812</t>
+  </si>
+  <si>
+    <t>testreference1812</t>
+  </si>
+  <si>
+    <t>iptransitcontact1812</t>
+  </si>
+  <si>
+    <t>iptransit_1812@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_1812</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_1812</t>
+  </si>
+  <si>
+    <t>IPTransitService_1812</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1812</t>
+  </si>
+  <si>
+    <t>User_1812</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1812@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit1812</t>
+  </si>
+  <si>
+    <t>Useredit1812</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_1812@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_1812</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_1812</t>
+  </si>
+  <si>
+    <t>IPTransitedit_1812@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransit1902</t>
+  </si>
+  <si>
+    <t>iptransitdomain1902.com</t>
+  </si>
+  <si>
+    <t>iptransitocn1902</t>
+  </si>
+  <si>
+    <t>testreference1902</t>
+  </si>
+  <si>
+    <t>iptransitcontact1902</t>
+  </si>
+  <si>
+    <t>iptransit_1902@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_1902</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_1902</t>
+  </si>
+  <si>
+    <t>IPTransitService_1902</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1902</t>
+  </si>
+  <si>
+    <t>User_1902</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1902@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit1902</t>
+  </si>
+  <si>
+    <t>Useredit1902</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_1902@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_1902</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_1902</t>
+  </si>
+  <si>
+    <t>IPTransitedit_1902@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransit2562</t>
+  </si>
+  <si>
+    <t>iptransitdomain2562.com</t>
+  </si>
+  <si>
+    <t>iptransitocn2562</t>
+  </si>
+  <si>
+    <t>testreference2562</t>
+  </si>
+  <si>
+    <t>iptransitcontact2562</t>
+  </si>
+  <si>
+    <t>iptransit_2562@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_2562</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_2562</t>
+  </si>
+  <si>
+    <t>IPTransitService_2562</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2562</t>
+  </si>
+  <si>
+    <t>User_2562</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2562@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit2562</t>
+  </si>
+  <si>
+    <t>Useredit2562</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_2562@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_2562</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_2562</t>
+  </si>
+  <si>
+    <t>IPTransitedit_2562@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransit2633</t>
+  </si>
+  <si>
+    <t>iptransitdomain2633.com</t>
+  </si>
+  <si>
+    <t>iptransitocn2633</t>
+  </si>
+  <si>
+    <t>testreference2633</t>
+  </si>
+  <si>
+    <t>iptransitcontact2633</t>
+  </si>
+  <si>
+    <t>iptransit_2633@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_2633</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_2633</t>
+  </si>
+  <si>
+    <t>IPTransitService_2633</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2633</t>
+  </si>
+  <si>
+    <t>User_2633</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2633@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit2633</t>
+  </si>
+  <si>
+    <t>Useredit2633</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_2633@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_2633</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_2633</t>
+  </si>
+  <si>
+    <t>IPTransitedit_2633@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransit2751</t>
+  </si>
+  <si>
+    <t>iptransitdomain2751.com</t>
+  </si>
+  <si>
+    <t>iptransitocn2751</t>
+  </si>
+  <si>
+    <t>testreference2751</t>
+  </si>
+  <si>
+    <t>iptransitcontact2751</t>
+  </si>
+  <si>
+    <t>iptransit_2751@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_2751</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_2751</t>
+  </si>
+  <si>
+    <t>IPTransitService_2751</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2751</t>
+  </si>
+  <si>
+    <t>User_2751</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2751@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit2751</t>
+  </si>
+  <si>
+    <t>Useredit2751</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_2751@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_2751</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_2751</t>
+  </si>
+  <si>
+    <t>IPTransitedit_2751@gmail.com</t>
+  </si>
+  <si>
+    <t>Iptdevice1705</t>
+  </si>
+  <si>
+    <t>Iptdevice1812</t>
+  </si>
+  <si>
+    <t>Iptdevice1902</t>
+  </si>
+  <si>
+    <t>Iptdevice2562</t>
+  </si>
+  <si>
+    <t>Iptdevice2633</t>
+  </si>
+  <si>
+    <t>Iptdevice2751</t>
+  </si>
+  <si>
+    <t>10.31.64.41</t>
+  </si>
+  <si>
+    <t>10.32.24.16</t>
+  </si>
+  <si>
+    <t>10.35.26.11</t>
+  </si>
+  <si>
+    <t>10.49.61.54</t>
+  </si>
+  <si>
+    <t>10.32.46.15</t>
+  </si>
+  <si>
+    <t>10.37.16.17</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit1705</t>
+  </si>
+  <si>
+    <t>10.29.86.52</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit1812</t>
+  </si>
+  <si>
+    <t>10.31.52.13</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit1902</t>
+  </si>
+  <si>
+    <t>10.37.72.42</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit2562</t>
+  </si>
+  <si>
+    <t>10.28.18.32</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit2633</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit2751</t>
+  </si>
+  <si>
+    <t>10.54.82.44</t>
+  </si>
+  <si>
+    <t>10.34.82.75</t>
+  </si>
+  <si>
+    <t>interface1705</t>
+  </si>
+  <si>
+    <t>interfaceEdit1705</t>
+  </si>
+  <si>
+    <t>interface1812</t>
+  </si>
+  <si>
+    <t>interfaceEdit1812</t>
+  </si>
+  <si>
+    <t>interface1902</t>
+  </si>
+  <si>
+    <t>interfaceEdit1902</t>
+  </si>
+  <si>
+    <t>interface2562</t>
+  </si>
+  <si>
+    <t>interfaceEdit2562</t>
+  </si>
+  <si>
+    <t>interface2633</t>
+  </si>
+  <si>
+    <t>interface2751</t>
+  </si>
+  <si>
+    <t>interfaceEdit2633</t>
+  </si>
+  <si>
+    <t>interfaceEdit2751</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1465,9 +1672,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1486,7 +1690,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1494,6 +1697,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1775,10 +1992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IO4"/>
+  <dimension ref="A1:IS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="GV3" sqref="GV3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1837,7 +2054,7 @@
     <col min="57" max="57" width="28.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="58" max="58" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="59" max="59" width="23.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="20.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="34" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="61" max="61" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="62" max="62" width="26.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="63" max="63" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2000,24 +2217,24 @@
     <col min="267" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:249" ht="27" customHeight="1">
+    <row r="1" spans="1:253" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -2158,603 +2375,615 @@
         <v>48</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CF1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CV1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="CW1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="CX1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="CU1" s="8" t="s">
+      <c r="CY1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="CV1" s="10" t="s">
+      <c r="CZ1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="DB1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="DC1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="DD1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="DE1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="DF1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="DG1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="DH1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="DI1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="DJ1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="DK1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="DL1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="DM1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="DN1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="DP1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="DQ1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="DR1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="DS1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="DT1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="DU1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="DV1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="DW1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="DX1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="DY1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="DZ1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="EA1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="EB1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="EC1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="ED1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="EE1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="CW1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="CX1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="CY1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="CZ1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="DA1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="DB1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="DC1" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="DD1" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="DE1" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="DF1" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="DG1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="DH1" s="14" t="s">
+      <c r="EF1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="EG1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="DI1" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="DJ1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="DL1" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="DM1" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="DN1" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="DO1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="DP1" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="DQ1" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="DR1" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="DS1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="DT1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="DU1" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="DV1" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="DW1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="DX1" s="14" t="s">
+      <c r="EH1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="DY1" s="14" t="s">
+      <c r="EI1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="DZ1" s="14" t="s">
+      <c r="EJ1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="EK1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="EA1" s="14" t="s">
+      <c r="EL1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="EB1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="EC1" s="14" t="s">
+      <c r="EM1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="ED1" s="14" t="s">
+      <c r="EN1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="EE1" s="14" t="s">
+      <c r="EO1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="EF1" s="14" t="s">
+      <c r="EP1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="EG1" s="14" t="s">
+      <c r="EQ1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="EH1" s="14" t="s">
+      <c r="ER1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="EI1" s="14" t="s">
+      <c r="ES1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="EJ1" s="14" t="s">
+      <c r="ET1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="EK1" s="14" t="s">
+      <c r="EU1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="EL1" s="14" t="s">
+      <c r="EV1" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="EM1" s="14" t="s">
+      <c r="EW1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="EN1" s="14" t="s">
+      <c r="EX1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="EO1" s="14" t="s">
+      <c r="EY1" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="EP1" s="14" t="s">
+      <c r="EZ1" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="EQ1" s="14" t="s">
+      <c r="FA1" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="ER1" s="14" t="s">
+      <c r="FB1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="ES1" s="14" t="s">
+      <c r="FC1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="ET1" s="14" t="s">
+      <c r="FD1" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="EU1" s="14" t="s">
+      <c r="FE1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="EV1" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="EW1" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="EX1" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="EY1" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="EZ1" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="FA1" s="14" t="s">
+      <c r="FF1" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="FB1" s="14" t="s">
+      <c r="FG1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="FH1" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="FI1" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="FJ1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="FK1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="FL1" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="FM1" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="FN1" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="FO1" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="FP1" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="FQ1" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="FR1" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="FS1" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="FT1" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="FU1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="FV1" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="FC1" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="FD1" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="FE1" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="FF1" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="FG1" s="14" t="s">
+      <c r="FW1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="FH1" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="FI1" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="FJ1" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FK1" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="FL1" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="FM1" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="FN1" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="FO1" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="FP1" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="FQ1" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="FR1" s="14" t="s">
+      <c r="FX1" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="FS1" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="FT1" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="FU1" s="14" t="s">
+      <c r="FY1" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="FZ1" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="GA1" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="GB1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="GC1" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="GD1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="GE1" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="FV1" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="FW1" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="FX1" s="14" t="s">
+      <c r="GF1" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="FY1" s="14" t="s">
+      <c r="GG1" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="GH1" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="FZ1" s="14" t="s">
+      <c r="GI1" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="GJ1" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="GA1" s="14" t="s">
+      <c r="GK1" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="GB1" s="14" t="s">
+      <c r="GL1" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="GC1" s="14" t="s">
+      <c r="GM1" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="GD1" s="14" t="s">
+      <c r="GN1" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="GE1" s="14" t="s">
+      <c r="GO1" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="GF1" s="14" t="s">
+      <c r="GP1" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="GG1" s="14" t="s">
+      <c r="GQ1" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="GR1" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="GH1" s="14" t="s">
+      <c r="GS1" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="GT1" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="GI1" s="14" t="s">
+      <c r="GU1" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="GJ1" s="14" t="s">
+      <c r="GV1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="GK1" s="14" t="s">
+      <c r="GW1" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="GL1" s="14" t="s">
+      <c r="GX1" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="GM1" s="14" t="s">
+      <c r="GY1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="GZ1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="HA1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="HB1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="HC1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="HD1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="HE1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="HF1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="HG1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="HH1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="HK1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="HL1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="HM1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="HN1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="HO1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="HP1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="HQ1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="HR1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="HS1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="HT1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="HU1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="HV1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="HW1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="HX1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="HY1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="HZ1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="IA1" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="IB1" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="IC1" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="ID1" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="IE1" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="GN1" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="GO1" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="GP1" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="GQ1" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="GR1" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="GS1" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="GT1" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="GU1" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="GV1" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="GW1" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="GX1" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="GY1" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="GZ1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="HA1" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="HB1" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="HC1" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="HD1" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="HE1" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="HF1" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="HG1" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="HH1" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="HI1" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="HJ1" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="HK1" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="HL1" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="HM1" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="HN1" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="HO1" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="HP1" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="HQ1" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="HR1" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="HS1" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="HT1" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="HU1" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="HV1" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="HW1" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="HX1" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="HY1" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="HZ1" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="IA1" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="IB1" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="IC1" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="ID1" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="IE1" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="IF1" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="IG1" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="IH1" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="II1" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="IJ1" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="IK1" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="IL1" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="IM1" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="IN1" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="IO1" s="14" t="s">
-        <v>440</v>
+      <c r="IF1" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="IG1" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="IH1" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="II1" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="IJ1" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="IK1" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="IL1" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="IM1" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="IN1" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="IO1" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="IP1" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="IQ1" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="IR1" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="IS1" s="13" t="s">
+        <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:249" ht="18" customHeight="1">
+    <row r="2" spans="1:253" ht="18" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>86</v>
@@ -2763,37 +2992,37 @@
         <v>61</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>4</v>
@@ -2814,34 +3043,34 @@
         <v>5</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="20">
-        <v>44115.776388888888</v>
+      <c r="AC2" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>86</v>
@@ -2868,10 +3097,10 @@
         <v>36</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>74</v>
@@ -2880,630 +3109,642 @@
         <v>41</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>423</v>
+        <v>86</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="BE2" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="BD2" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="BG2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH2" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="BI2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BI2" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BM2" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="BN2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BK2" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>76</v>
+      <c r="BO2" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="BQ2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BR2" s="21" t="s">
+      <c r="BV2" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW2" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX2" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CB2" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CC2" s="3">
+        <v>11100170513</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="CE2" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="CF2" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="CG2" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="CJ2" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CO2" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP2" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CQ2" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="BS2" s="21" t="s">
+      <c r="CR2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CS2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CV2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="CW2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CZ2" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="DA2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="DB2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="DC2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="DF2" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="DG2" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH2" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="DI2" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="DJ2" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="DK2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="DL2" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="DM2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DN2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="DO2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DP2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="DU2" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="DV2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW2" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="DX2" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="DY2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ2" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="EA2" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="ED2" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="EE2" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="EF2" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="EG2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="EJ2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EK2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="EL2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="EM2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="EN2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="EO2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="EP2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ER2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="ES2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ET2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EV2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="EW2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EX2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EY2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EZ2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="FA2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FB2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="FC2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FD2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="FE2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="FF2" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="FG2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FH2" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="FI2" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="FJ2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="FK2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="FL2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="FM2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FN2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="FO2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FQ2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FR2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="FS2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FT2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FU2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="BT2" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="BW2" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="BX2" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="BY2" s="3">
-        <v>11100135713</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="CA2" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="CB2" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="CC2" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="CF2" s="23" t="s">
+      <c r="FV2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FW2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="FX2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FY2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="FZ2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="CG2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CH2" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="CI2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CJ2" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="CK2" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="CL2" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="CM2" s="23" t="s">
+      <c r="GA2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="CN2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CO2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CP2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CQ2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CR2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="CS2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="CT2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="CU2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="CV2" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="CW2" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="CX2" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="CY2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="CZ2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DA2" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="DB2" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="DC2" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="DD2" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="DE2" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="DF2" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="DG2" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="DH2" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="DI2" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="DJ2" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="DK2" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="DL2" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="DM2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="DN2" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="DO2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="DP2" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="DQ2" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="DR2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS2" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="DT2" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="DU2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="DV2" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="DW2" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="DY2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="EA2" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="EB2" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="EC2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="ED2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="EE2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="EF2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EG2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="EH2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="EI2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EJ2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="EK2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="EL2" s="2" t="s">
+      <c r="GB2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GC2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="GD2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="GE2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="GF2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GG2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="GH2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="GI2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="GJ2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="GK2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="GL2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GM2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="GN2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="GO2" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="GP2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GQ2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="GR2" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="GS2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GT2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GU2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GV2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="EM2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EN2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="EO2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EP2" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="EQ2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="ER2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="ES2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="ET2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EU2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="EV2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="EW2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="EX2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EY2" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="EZ2" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="FA2" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="FB2" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="FC2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FD2" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="FE2" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="FF2" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="FG2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="FH2" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="FI2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FJ2" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="FK2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FL2" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="FM2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FN2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="FO2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FP2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="FQ2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="FR2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="FS2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="FT2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="FU2" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="FV2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="FW2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="FX2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="FY2" s="2" t="s">
+      <c r="GW2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="GX2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GY2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="GZ2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="HA2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="HB2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="HC2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="FZ2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="GA2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="GB2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GC2" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="GD2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="GE2" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="GF2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="GG2" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="GH2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="GI2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="GJ2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="GK2" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="GL2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GM2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="GN2" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="GO2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GP2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GQ2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="GR2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="GS2" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GT2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GU2" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="GV2" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="GW2" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="GX2" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="GY2" s="2" t="s">
+      <c r="HD2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="GZ2" s="2" t="s">
+      <c r="HE2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="HF2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="HG2" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="HI2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="HK2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="HL2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="HM2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="HN2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="HA2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="HB2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="HC2" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="HD2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="HE2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="HF2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="HG2" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="HH2" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="HI2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="HJ2" s="2" t="s">
+      <c r="HO2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="HK2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="HL2" s="2" t="s">
+      <c r="HP2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="HM2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="HN2" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="HO2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="HP2" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="HQ2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="HR2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HR2" s="16" t="s">
         <v>76</v>
       </c>
       <c r="HS2" s="2" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="HT2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="HU2" s="2" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="HV2" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="HW2" s="2" t="s">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="HX2" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="HY2" s="2" t="s">
         <v>84</v>
       </c>
       <c r="HZ2" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="IA2" s="2" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="IB2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="IC2" s="19" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="IC2" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="ID2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="IE2" s="18" t="s">
-        <v>177</v>
+        <v>61</v>
+      </c>
+      <c r="IE2" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="IF2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="IG2" s="2" t="s">
-        <v>393</v>
+        <v>76</v>
+      </c>
+      <c r="IG2" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="IH2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="II2" s="2" t="s">
-        <v>427</v>
+        <v>124</v>
+      </c>
+      <c r="II2" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="IJ2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="IK2" s="2" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="IL2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="IM2" s="2" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="IN2" s="2" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="IO2" s="2" t="s">
-        <v>178</v>
+        <v>338</v>
+      </c>
+      <c r="IP2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IQ2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="IR2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="IS2" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:249" ht="18.75" customHeight="1">
+    <row r="3" spans="1:253" ht="18" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>86</v>
@@ -3512,37 +3753,37 @@
         <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>4</v>
@@ -3563,34 +3804,34 @@
         <v>5</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="20">
-        <v>44115.776388888888</v>
+      <c r="AC3" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>86</v>
@@ -3617,10 +3858,10 @@
         <v>36</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>74</v>
@@ -3629,621 +3870,642 @@
         <v>41</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>317</v>
+        <v>402</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AY3" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="BD3" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="BG3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH3" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM3" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO3" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV3" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW3" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX3" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CB3" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>11100181213</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="CE3" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="CF3" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="CG3" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="CJ3" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CO3" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP3" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CQ3" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="CR3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CS3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CV3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="CW3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CZ3" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="DA3" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="DB3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="DC3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="DF3" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="DG3" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH3" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="DI3" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="DJ3" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="DK3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="DL3" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="DM3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DN3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="DO3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DP3" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR3" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT3" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="DU3" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="DV3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW3" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="DX3" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="DY3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ3" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="AZ3" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BA3" s="2" t="s">
+      <c r="EA3" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="BB3" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="BE3" s="6" t="s">
+      <c r="EB3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BF3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI3" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK3" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BP3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="EC3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="ED3" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="EE3" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="EF3" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="EG3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BR3" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="BS3" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="BT3" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="BX3" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="BY3" s="3">
-        <v>11100132113</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="CA3" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="CB3" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="CC3" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="CD3" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="CE3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="CF3" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="CG3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="CI3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="CK3" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="CL3" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="CM3" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="CN3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CO3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CP3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CR3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="CS3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="CT3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="CU3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="CV3" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="CW3" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="CX3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="CY3" s="15" t="s">
+      <c r="EI3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CZ3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="DA3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DB3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="DC3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="DD3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="DE3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="DF3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="DG3" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="DH3" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="DI3" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="DJ3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="DK3" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="DL3" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="DM3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="DN3" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="DO3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="DP3" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="DQ3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="DR3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS3" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="DT3" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="DU3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="DV3" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="DW3" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="DY3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="DZ3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="EA3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="EB3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="EC3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="ED3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="EE3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="EF3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="EG3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="EH3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="EI3" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="EJ3" s="2" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="EK3" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="EL3" s="2" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="EM3" s="2" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="EN3" s="2" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="EO3" s="2" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="EP3" s="2" t="s">
         <v>88</v>
       </c>
       <c r="EQ3" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="ER3" s="2" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="ES3" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="ET3" s="2" t="s">
-        <v>88</v>
+        <v>304</v>
       </c>
       <c r="EU3" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="EV3" s="2" t="s">
         <v>88</v>
       </c>
       <c r="EW3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EX3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EY3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EZ3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="FA3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FB3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="FC3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FD3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="FE3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="FF3" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="FG3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FH3" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="FI3" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="FJ3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="FK3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="FL3" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="FM3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FN3" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="FO3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FQ3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FR3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="FS3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FT3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FU3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="FV3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FW3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="FX3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FY3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="FZ3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="GA3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="GB3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GC3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="GD3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="GE3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="GF3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GG3" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="GH3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="GI3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="GJ3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="GK3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="GL3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GM3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="GN3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="GO3" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="GP3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GQ3" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="GR3" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="GS3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GT3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GU3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GV3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="EX3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="EY3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="EZ3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="FA3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="FB3" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="FC3" s="2" t="s">
+      <c r="GW3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="GX3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GY3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="GZ3" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="HA3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="HB3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="HC3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="FD3" s="2" t="s">
+      <c r="HD3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HE3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="HF3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="HG3" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="HI3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="HK3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="HL3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="HM3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="HN3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HO3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HP3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="FF3" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="FG3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="FH3" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="FI3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="FJ3" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="FK3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FL3" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="FM3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="FN3" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="FO3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FP3" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="FQ3" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="FR3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="FS3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="FT3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="FU3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="FV3" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="FW3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="FX3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="FY3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="FZ3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="GA3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GB3" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="GC3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GD3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GE3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GF3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GG3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GH3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="GI3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GJ3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GK3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GL3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GM3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GN3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GO3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GP3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GQ3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GR3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GS3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GT3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GU3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GV3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GW3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GX3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="GY3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="GZ3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="HA3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="HB3" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="HC3" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="HD3" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="HE3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="HF3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="HG3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="HH3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="HI3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="HJ3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="HK3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="HL3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="HM3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="HN3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="HO3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="HP3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="HQ3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="HR3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HR3" s="16" t="s">
         <v>76</v>
       </c>
       <c r="HS3" s="2" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="HT3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="HU3" s="2" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="HV3" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="HW3" s="2" t="s">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="HX3" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="HY3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="HZ3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="IC3" s="19" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="IA3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="IB3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="IC3" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="ID3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="IE3" s="18" t="s">
-        <v>177</v>
+        <v>61</v>
+      </c>
+      <c r="IE3" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="IF3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="IG3" s="2" t="s">
-        <v>393</v>
+        <v>76</v>
+      </c>
+      <c r="IG3" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="IH3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="II3" s="2" t="s">
-        <v>394</v>
+        <v>124</v>
+      </c>
+      <c r="II3" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="IJ3" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="IK3" s="2" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="IL3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="IM3" s="2" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="IN3" s="2" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="IO3" s="2" t="s">
-        <v>178</v>
+        <v>338</v>
+      </c>
+      <c r="IP3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IQ3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="IR3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="IS3" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:249" ht="18.75" customHeight="1">
+    <row r="4" spans="1:253" ht="18" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>86</v>
@@ -4252,37 +4514,37 @@
         <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>325</v>
+        <v>410</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>326</v>
+        <v>411</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>327</v>
+        <v>412</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>329</v>
+        <v>414</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>4</v>
@@ -4303,34 +4565,34 @@
         <v>5</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>330</v>
+        <v>415</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>331</v>
+        <v>416</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>330</v>
+        <v>415</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>331</v>
+        <v>416</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>332</v>
+        <v>417</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="20">
-        <v>44115.776388888888</v>
+      <c r="AC4" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>86</v>
@@ -4357,10 +4619,10 @@
         <v>36</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>335</v>
+        <v>419</v>
       </c>
       <c r="AP4" s="2" t="s">
         <v>74</v>
@@ -4369,613 +4631,2917 @@
         <v>41</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>330</v>
+        <v>415</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AY4" s="5" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
       <c r="AZ4" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>340</v>
+        <v>86</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>341</v>
+        <v>424</v>
       </c>
       <c r="BC4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="BD4" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="BE4" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="BD4" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="BG4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH4" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="BI4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BF4" s="7" t="s">
+      <c r="BJ4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BG4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH4" s="2" t="s">
+      <c r="BK4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BI4" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="BJ4" s="2" t="s">
+      <c r="BM4" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="BN4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BK4" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="BL4" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BN4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO4" s="2" t="s">
-        <v>76</v>
+      <c r="BO4" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="BP4" s="2" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="BQ4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BR4" s="21" t="s">
+      <c r="BV4" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW4" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX4" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CA4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CB4" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>11100190213</v>
+      </c>
+      <c r="CD4" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="CE4" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="CF4" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="CG4" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="CH4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="CJ4" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CM4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CO4" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP4" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CQ4" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="BS4" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="BT4" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="BU4" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="BV4" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="BW4" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="BX4" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="BY4" s="3">
-        <v>11100132213</v>
-      </c>
-      <c r="BZ4" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="CA4" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="CB4" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="CC4" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="CD4" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="CE4" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="CF4" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="CG4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CH4" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="CI4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CJ4" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="CK4" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="CL4" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="CM4" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="CN4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CO4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CP4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CQ4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CR4" s="9" t="s">
+      <c r="CR4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CS4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CV4" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="CS4" s="9" t="s">
+      <c r="CW4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="CT4" s="9" t="s">
+      <c r="CX4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="CU4" s="9" t="s">
+      <c r="CY4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="CV4" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="CW4" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="CX4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="CY4" s="15" t="s">
+      <c r="CZ4" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="DA4" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="DB4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="CZ4" s="15" t="s">
+      <c r="DC4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DA4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DB4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="DC4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="DD4" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="DE4" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="DF4" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="DG4" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="DH4" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="DI4" s="16" t="s">
+      <c r="DF4" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="DG4" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH4" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="DI4" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="DJ4" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="DK4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="DL4" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="DM4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="DJ4" s="17" t="s">
+      <c r="DN4" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="DO4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DP4" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT4" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="DU4" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="DV4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW4" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="DX4" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="DY4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ4" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="EA4" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="EB4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EC4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="DK4" s="16" t="s">
+      <c r="ED4" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="EE4" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="EF4" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="EG4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="DL4" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="DM4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="DN4" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="DO4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="DP4" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="DQ4" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="DR4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="DS4" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="DT4" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="DU4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="DV4" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="DW4" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="DY4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="DZ4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="EA4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="EB4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="EC4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="ED4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="EE4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="EF4" s="2" t="s">
+      <c r="EI4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="EG4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="EH4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="EI4" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="EJ4" s="2" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="EK4" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="EL4" s="2" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="EM4" s="2" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="EN4" s="2" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="EO4" s="2" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="EP4" s="2" t="s">
         <v>88</v>
       </c>
       <c r="EQ4" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="ER4" s="2" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="ES4" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="ET4" s="2" t="s">
-        <v>88</v>
+        <v>304</v>
       </c>
       <c r="EU4" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="EV4" s="2" t="s">
         <v>88</v>
       </c>
       <c r="EW4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EX4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EY4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EZ4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="FA4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FB4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="FC4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FD4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="FE4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="FF4" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="FG4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FH4" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="FI4" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="FJ4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="FK4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="FL4" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="FM4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FN4" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="FO4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FQ4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FR4" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="FS4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FT4" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FU4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="FV4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FW4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="FX4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FY4" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="FZ4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="GA4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="GB4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GC4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="GD4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="GE4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="GF4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GG4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="GH4" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="GI4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="GJ4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="GK4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="GL4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GM4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="GN4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="GO4" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="GP4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GQ4" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="GR4" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="GS4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GT4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GU4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GV4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="EX4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="EY4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="EZ4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="FA4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="FB4" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="FC4" s="2" t="s">
+      <c r="GW4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="GX4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GY4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="GZ4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="HA4" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="HB4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="HC4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="FD4" s="2" t="s">
+      <c r="HD4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HE4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="HF4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="HG4" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="HI4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ4" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="HK4" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="HL4" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="HM4" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="HN4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HO4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HP4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="FF4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="FG4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="FH4" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="FI4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="FJ4" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="FK4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FL4" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="FM4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="FN4" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="FO4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="FP4" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="FQ4" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="FR4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="FS4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="FT4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="FU4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="FV4" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="FW4" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="FX4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="FY4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="FZ4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="GA4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GB4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="GC4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GD4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GE4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GF4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GG4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GH4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="GI4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GJ4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GK4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GL4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GM4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GN4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GO4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GP4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GQ4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GR4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GS4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GT4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GU4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GV4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GW4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="GX4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="GY4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="GZ4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="HA4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="HB4" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="HC4" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="HD4" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="HE4" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="HF4" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="HG4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="HH4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="HI4" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="HJ4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="HK4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="HL4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="HM4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="HN4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="HO4" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="HP4" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="HQ4" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="HR4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HR4" s="16" t="s">
         <v>76</v>
       </c>
       <c r="HS4" s="2" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="HT4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="HU4" s="2" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="HV4" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="HW4" s="2" t="s">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="HX4" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="HY4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="HZ4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="IA4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="IB4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="IC4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="ID4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IE4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="IF4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="IG4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="IH4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="II4" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="IJ4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IK4" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="IL4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IM4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="IN4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IO4" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="IP4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IQ4" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="IR4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="IS4" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:253" ht="18" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="BD5" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="BG5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH5" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="BI5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM5" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="BN5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO5" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV5" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW5" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX5" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CA5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CB5" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CC5" s="3">
+        <v>11100256213</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="CE5" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="CF5" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="CG5" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="CH5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="CI5" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="CJ5" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CM5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CO5" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP5" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CQ5" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="CR5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CS5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CV5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="CW5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CZ5" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="DA5" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="DB5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="DC5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="DF5" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="DG5" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH5" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="DI5" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="DJ5" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="DK5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="DL5" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="DM5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DN5" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="DO5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DP5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT5" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="DU5" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="DV5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW5" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="DX5" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="DY5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ5" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="EA5" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="EB5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EC5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="ED5" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="EE5" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="EF5" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="EG5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="EJ5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EK5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="EL5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="EM5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="EN5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="EO5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="EP5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="EQ5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ER5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="ES5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ET5" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EV5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="EW5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EX5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EY5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EZ5" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="FA5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FB5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="FC5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FD5" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="FE5" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="FF5" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="FG5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FH5" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="FI5" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="FJ5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="FK5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="FL5" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="FM5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FN5" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="FO5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP5" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FQ5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FR5" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="FS5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FT5" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FU5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="FV5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FW5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="FX5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FY5" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="FZ5" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="GA5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="GB5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GC5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="IC4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="ID4" s="2" t="s">
+      <c r="GD5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="GE5" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="GF5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GG5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="GH5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="GI5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="GJ5" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="GK5" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="GL5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GM5" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="GN5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="GO5" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="GP5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GQ5" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="GR5" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="GS5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GT5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GU5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GV5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="GW5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="GX5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GY5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="GZ5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="HA5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="HB5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="HC5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HD5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HE5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="HF5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="HG5" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="HI5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="HK5" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="HL5" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="HM5" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="HN5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HO5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HP5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="HQ5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HR5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="HS5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="HT5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HU5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="HV5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HW5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HX5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HY5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="HZ5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="IA5" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="IB5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="IC5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="ID5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IE5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="IF5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="IG5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="IH5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="II5" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="IJ5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IK5" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="IL5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IM5" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="IN5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IO5" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="IP5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IQ5" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="IR5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="IS5" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:253" ht="18" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC6" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY6" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="BD6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="BG6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH6" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="BI6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM6" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO6" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="BP6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV6" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW6" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX6" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CA6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CB6" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CC6" s="3">
+        <v>11100263313</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="CE6" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="CF6" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="CG6" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="CH6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="CJ6" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CM6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CO6" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP6" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CQ6" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="CR6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CS6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CV6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="CW6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CZ6" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="DA6" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="DB6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="DC6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="DF6" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="DG6" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH6" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="DI6" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="DJ6" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="DK6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="DL6" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="DM6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DN6" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="DO6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DP6" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR6" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT6" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="DU6" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="DV6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW6" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="DX6" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="DY6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ6" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="EA6" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="EB6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EC6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="IE4" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="IF4" s="2" t="s">
+      <c r="ED6" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="EE6" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="EF6" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="EG6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="IG4" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="IH4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="II4" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="IJ4" s="2" t="s">
+      <c r="EI6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="IK4" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="IL4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="IM4" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="IN4" s="2" t="s">
+      <c r="EJ6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EK6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="EL6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="EM6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="EN6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="EO6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="EP6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="EQ6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ER6" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="ES6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ET6" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EV6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="EW6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EX6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EY6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EZ6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="FA6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FB6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="FC6" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FD6" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="FE6" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="FF6" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="FG6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FH6" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="FI6" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="FJ6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="FK6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="FL6" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="FM6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FN6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="FO6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FQ6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FR6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="FS6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FT6" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FU6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="FV6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FW6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="FX6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FY6" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="FZ6" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="GA6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="GB6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GC6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="GD6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="GE6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="GF6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GG6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="GH6" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="GI6" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="GJ6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="GK6" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="GL6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GM6" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="GN6" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="GO6" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="GP6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GQ6" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="GR6" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="GS6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GT6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GU6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GV6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="GW6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="GX6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GY6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="GZ6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="HA6" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="HB6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="HC6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HD6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HE6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="HF6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="HG6" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="HI6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="HK6" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="HL6" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="HM6" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="HN6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HO6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HP6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="HQ6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HR6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="HS6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="HT6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HU6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="HV6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HW6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HX6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HY6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="HZ6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="IA6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="IB6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="IC6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="ID6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IE6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="IF6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="IG6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="IH6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="II6" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="IJ6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IK6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="IL6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IM6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="IN6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IO6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="IP6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IQ6" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="IR6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="IS6" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:253" ht="18" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC7" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR7" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY7" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="BD7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BG7" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH7" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="BI7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM7" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="BN7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO7" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="BP7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV7" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW7" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX7" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="BY7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CA7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CB7" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CC7" s="3">
+        <v>11100275113</v>
+      </c>
+      <c r="CD7" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="CE7" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="CF7" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="CG7" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="CH7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="CI7" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="CJ7" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CM7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CO7" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP7" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="CQ7" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="CR7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CS7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="CV7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="CW7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CZ7" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="DA7" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="DB7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="DC7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="DF7" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="IO4" s="2" t="s">
-        <v>178</v>
+      <c r="DG7" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH7" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="DI7" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="DJ7" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="DK7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="DL7" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="DM7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DN7" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="DO7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DP7" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT7" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="DU7" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="DV7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW7" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="DX7" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="DY7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ7" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="EA7" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="EB7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EC7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="ED7" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="EE7" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="EF7" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="EG7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="EJ7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EK7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="EL7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="EM7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="EN7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="EO7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="EP7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="EQ7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ER7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="ES7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ET7" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="EU7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EV7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="EW7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EX7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EY7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EZ7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="FA7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FB7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="FC7" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FD7" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="FE7" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="FF7" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="FG7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FH7" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="FI7" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="FJ7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="FK7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="FL7" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="FM7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FN7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="FO7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FQ7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FR7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="FS7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="FT7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FU7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="FV7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FW7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="FX7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FY7" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="FZ7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="GA7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="GB7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GC7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="GD7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="GE7" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="GF7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GG7" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="GH7" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="GI7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="GJ7" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="GK7" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="GL7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GM7" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="GN7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="GO7" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="GP7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GQ7" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="GR7" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="GS7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GT7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GU7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="GV7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="GW7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="GX7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="GY7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="GZ7" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="HA7" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="HB7" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="HC7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HD7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HE7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="HF7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="HG7" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="HI7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ7" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="HK7" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="HL7" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="HM7" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="HN7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HO7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HP7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="HQ7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HR7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="HS7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="HT7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HU7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="HV7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HW7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HX7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HY7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="HZ7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="IA7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="IB7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="IC7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="ID7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IE7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="IF7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="IG7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="IH7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="II7" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="IJ7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IK7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="IL7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IM7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="IN7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IO7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="IP7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="IQ7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="IR7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="IS7" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4983,17 +7549,29 @@
     <hyperlink ref="AR2" r:id="rId1" display="IPTransitUser_06@gmail.com"/>
     <hyperlink ref="M2" r:id="rId2" display="iptransit_1330@test.com"/>
     <hyperlink ref="AY2" r:id="rId3" display="IPTransitUseredit_06@gmail.com"/>
-    <hyperlink ref="BK2" r:id="rId4" display="IPTransitedit_06@gmail.com"/>
+    <hyperlink ref="BO2" r:id="rId4" display="IPTransitedit_06@gmail.com"/>
     <hyperlink ref="AR3" r:id="rId5" display="IPTransitUser_06@gmail.com"/>
-    <hyperlink ref="M3" r:id="rId6" display="iptransit_06@test.com"/>
+    <hyperlink ref="M3" r:id="rId6" display="iptransit_1330@test.com"/>
     <hyperlink ref="AY3" r:id="rId7" display="IPTransitUseredit_06@gmail.com"/>
-    <hyperlink ref="BK3" r:id="rId8" display="IPTransitedit_06@gmail.com"/>
+    <hyperlink ref="BO3" r:id="rId8" display="IPTransitedit_06@gmail.com"/>
     <hyperlink ref="AR4" r:id="rId9" display="IPTransitUser_06@gmail.com"/>
-    <hyperlink ref="M4" r:id="rId10" display="iptransit_06@test.com"/>
+    <hyperlink ref="M4" r:id="rId10" display="iptransit_1330@test.com"/>
     <hyperlink ref="AY4" r:id="rId11" display="IPTransitUseredit_06@gmail.com"/>
-    <hyperlink ref="BK4" r:id="rId12" display="IPTransitedit_06@gmail.com"/>
+    <hyperlink ref="BO4" r:id="rId12" display="IPTransitedit_06@gmail.com"/>
+    <hyperlink ref="AR5" r:id="rId13" display="IPTransitUser_06@gmail.com"/>
+    <hyperlink ref="M5" r:id="rId14" display="iptransit_1330@test.com"/>
+    <hyperlink ref="AY5" r:id="rId15" display="IPTransitUseredit_06@gmail.com"/>
+    <hyperlink ref="BO5" r:id="rId16" display="IPTransitedit_06@gmail.com"/>
+    <hyperlink ref="AR6" r:id="rId17" display="IPTransitUser_06@gmail.com"/>
+    <hyperlink ref="M6" r:id="rId18" display="iptransit_1330@test.com"/>
+    <hyperlink ref="AY6" r:id="rId19" display="IPTransitUseredit_06@gmail.com"/>
+    <hyperlink ref="BO6" r:id="rId20" display="IPTransitedit_06@gmail.com"/>
+    <hyperlink ref="AR7" r:id="rId21" display="IPTransitUser_06@gmail.com"/>
+    <hyperlink ref="M7" r:id="rId22" display="iptransit_1330@test.com"/>
+    <hyperlink ref="AY7" r:id="rId23" display="IPTransitUseredit_06@gmail.com"/>
+    <hyperlink ref="BO7" r:id="rId24" display="IPTransitedit_06@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IPTransit.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IPTransit.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="IPTransit" sheetId="2" r:id="rId1"/>
+    <sheet name="Unique Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="518">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -1140,436 +1141,439 @@
     <t>ChangeOrder_existingOrderNumber</t>
   </si>
   <si>
-    <t>IPTransit1705</t>
-  </si>
-  <si>
-    <t>iptransitdomain1705.com</t>
-  </si>
-  <si>
-    <t>iptransitocn1705</t>
-  </si>
-  <si>
-    <t>testreference1705</t>
-  </si>
-  <si>
-    <t>iptransitcontact1705</t>
-  </si>
-  <si>
-    <t>iptransit_1705@test.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrder_1705</t>
-  </si>
-  <si>
-    <t>IPTransitRFI_1705</t>
-  </si>
-  <si>
-    <t>IPTransitService_1705</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1705</t>
-  </si>
-  <si>
-    <t>User_1705</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1705@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitUser_edit1705</t>
-  </si>
-  <si>
-    <t>Useredit1705</t>
-  </si>
-  <si>
-    <t>IPTransitUseredit_1705@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrderedit_1705</t>
-  </si>
-  <si>
-    <t>IPTransitRFIedit_1705</t>
-  </si>
-  <si>
-    <t>IPTransitedit_1705@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransit1812</t>
-  </si>
-  <si>
-    <t>iptransitdomain1812.com</t>
-  </si>
-  <si>
-    <t>iptransitocn1812</t>
-  </si>
-  <si>
-    <t>testreference1812</t>
-  </si>
-  <si>
-    <t>iptransitcontact1812</t>
-  </si>
-  <si>
-    <t>iptransit_1812@test.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrder_1812</t>
-  </si>
-  <si>
-    <t>IPTransitRFI_1812</t>
-  </si>
-  <si>
-    <t>IPTransitService_1812</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1812</t>
-  </si>
-  <si>
-    <t>User_1812</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1812@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitUser_edit1812</t>
-  </si>
-  <si>
-    <t>Useredit1812</t>
-  </si>
-  <si>
-    <t>IPTransitUseredit_1812@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrderedit_1812</t>
-  </si>
-  <si>
-    <t>IPTransitRFIedit_1812</t>
-  </si>
-  <si>
-    <t>IPTransitedit_1812@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransit1902</t>
-  </si>
-  <si>
-    <t>iptransitdomain1902.com</t>
-  </si>
-  <si>
-    <t>iptransitocn1902</t>
-  </si>
-  <si>
-    <t>testreference1902</t>
-  </si>
-  <si>
-    <t>iptransitcontact1902</t>
-  </si>
-  <si>
-    <t>iptransit_1902@test.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrder_1902</t>
-  </si>
-  <si>
-    <t>IPTransitRFI_1902</t>
-  </si>
-  <si>
-    <t>IPTransitService_1902</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1902</t>
-  </si>
-  <si>
-    <t>User_1902</t>
-  </si>
-  <si>
-    <t>IPTransitUser_1902@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitUser_edit1902</t>
-  </si>
-  <si>
-    <t>Useredit1902</t>
-  </si>
-  <si>
-    <t>IPTransitUseredit_1902@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrderedit_1902</t>
-  </si>
-  <si>
-    <t>IPTransitRFIedit_1902</t>
-  </si>
-  <si>
-    <t>IPTransitedit_1902@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransit2562</t>
-  </si>
-  <si>
-    <t>iptransitdomain2562.com</t>
-  </si>
-  <si>
-    <t>iptransitocn2562</t>
-  </si>
-  <si>
-    <t>testreference2562</t>
-  </si>
-  <si>
-    <t>iptransitcontact2562</t>
-  </si>
-  <si>
-    <t>iptransit_2562@test.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrder_2562</t>
-  </si>
-  <si>
-    <t>IPTransitRFI_2562</t>
-  </si>
-  <si>
-    <t>IPTransitService_2562</t>
-  </si>
-  <si>
-    <t>IPTransitUser_2562</t>
-  </si>
-  <si>
-    <t>User_2562</t>
-  </si>
-  <si>
-    <t>IPTransitUser_2562@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitUser_edit2562</t>
-  </si>
-  <si>
-    <t>Useredit2562</t>
-  </si>
-  <si>
-    <t>IPTransitUseredit_2562@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrderedit_2562</t>
-  </si>
-  <si>
-    <t>IPTransitRFIedit_2562</t>
-  </si>
-  <si>
-    <t>IPTransitedit_2562@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransit2633</t>
-  </si>
-  <si>
-    <t>iptransitdomain2633.com</t>
-  </si>
-  <si>
-    <t>iptransitocn2633</t>
-  </si>
-  <si>
-    <t>testreference2633</t>
-  </si>
-  <si>
-    <t>iptransitcontact2633</t>
-  </si>
-  <si>
-    <t>iptransit_2633@test.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrder_2633</t>
-  </si>
-  <si>
-    <t>IPTransitRFI_2633</t>
-  </si>
-  <si>
-    <t>IPTransitService_2633</t>
-  </si>
-  <si>
-    <t>IPTransitUser_2633</t>
-  </si>
-  <si>
-    <t>User_2633</t>
-  </si>
-  <si>
-    <t>IPTransitUser_2633@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitUser_edit2633</t>
-  </si>
-  <si>
-    <t>Useredit2633</t>
-  </si>
-  <si>
-    <t>IPTransitUseredit_2633@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrderedit_2633</t>
-  </si>
-  <si>
-    <t>IPTransitRFIedit_2633</t>
-  </si>
-  <si>
-    <t>IPTransitedit_2633@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransit2751</t>
-  </si>
-  <si>
-    <t>iptransitdomain2751.com</t>
-  </si>
-  <si>
-    <t>iptransitocn2751</t>
-  </si>
-  <si>
-    <t>testreference2751</t>
-  </si>
-  <si>
-    <t>iptransitcontact2751</t>
-  </si>
-  <si>
-    <t>iptransit_2751@test.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrder_2751</t>
-  </si>
-  <si>
-    <t>IPTransitRFI_2751</t>
-  </si>
-  <si>
-    <t>IPTransitService_2751</t>
-  </si>
-  <si>
-    <t>IPTransitUser_2751</t>
-  </si>
-  <si>
-    <t>User_2751</t>
-  </si>
-  <si>
-    <t>IPTransitUser_2751@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitUser_edit2751</t>
-  </si>
-  <si>
-    <t>Useredit2751</t>
-  </si>
-  <si>
-    <t>IPTransitUseredit_2751@gmail.com</t>
-  </si>
-  <si>
-    <t>IPTransitOrderedit_2751</t>
-  </si>
-  <si>
-    <t>IPTransitRFIedit_2751</t>
-  </si>
-  <si>
-    <t>IPTransitedit_2751@gmail.com</t>
-  </si>
-  <si>
-    <t>Iptdevice1705</t>
-  </si>
-  <si>
-    <t>Iptdevice1812</t>
-  </si>
-  <si>
-    <t>Iptdevice1902</t>
-  </si>
-  <si>
-    <t>Iptdevice2562</t>
-  </si>
-  <si>
-    <t>Iptdevice2633</t>
-  </si>
-  <si>
-    <t>Iptdevice2751</t>
-  </si>
-  <si>
-    <t>10.31.64.41</t>
-  </si>
-  <si>
-    <t>10.32.24.16</t>
-  </si>
-  <si>
-    <t>10.35.26.11</t>
-  </si>
-  <si>
-    <t>10.49.61.54</t>
-  </si>
-  <si>
-    <t>10.32.46.15</t>
-  </si>
-  <si>
-    <t>10.37.16.17</t>
-  </si>
-  <si>
-    <t>IptdeviceEdit1705</t>
-  </si>
-  <si>
-    <t>10.29.86.52</t>
-  </si>
-  <si>
-    <t>IptdeviceEdit1812</t>
-  </si>
-  <si>
-    <t>10.31.52.13</t>
-  </si>
-  <si>
-    <t>IptdeviceEdit1902</t>
-  </si>
-  <si>
-    <t>10.37.72.42</t>
-  </si>
-  <si>
-    <t>IptdeviceEdit2562</t>
-  </si>
-  <si>
-    <t>10.28.18.32</t>
-  </si>
-  <si>
-    <t>IptdeviceEdit2633</t>
-  </si>
-  <si>
-    <t>IptdeviceEdit2751</t>
-  </si>
-  <si>
-    <t>10.54.82.44</t>
-  </si>
-  <si>
-    <t>10.34.82.75</t>
-  </si>
-  <si>
-    <t>interface1705</t>
-  </si>
-  <si>
-    <t>interfaceEdit1705</t>
-  </si>
-  <si>
-    <t>interface1812</t>
-  </si>
-  <si>
-    <t>interfaceEdit1812</t>
-  </si>
-  <si>
-    <t>interface1902</t>
-  </si>
-  <si>
-    <t>interfaceEdit1902</t>
-  </si>
-  <si>
-    <t>interface2562</t>
-  </si>
-  <si>
-    <t>interfaceEdit2562</t>
-  </si>
-  <si>
-    <t>interface2633</t>
-  </si>
-  <si>
-    <t>interface2751</t>
-  </si>
-  <si>
-    <t>interfaceEdit2633</t>
-  </si>
-  <si>
-    <t>interfaceEdit2751</t>
+    <t>Columns for which unique data to be provided</t>
+  </si>
+  <si>
+    <t>IPTransit2754</t>
+  </si>
+  <si>
+    <t>iptransitdomain2754.com</t>
+  </si>
+  <si>
+    <t>iptransitocn2754</t>
+  </si>
+  <si>
+    <t>testreference2754</t>
+  </si>
+  <si>
+    <t>iptransitcontact2754</t>
+  </si>
+  <si>
+    <t>iptransit_2754@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_2754</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_2754</t>
+  </si>
+  <si>
+    <t>IPTransitService_2754</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2754</t>
+  </si>
+  <si>
+    <t>User_2754</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2754@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit2754</t>
+  </si>
+  <si>
+    <t>Useredit2754</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_2754@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_2754</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_2754</t>
+  </si>
+  <si>
+    <t>IPTransitedit_2754@gmail.com</t>
+  </si>
+  <si>
+    <t>Iptdevice2754</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit2754</t>
+  </si>
+  <si>
+    <t>interface2754</t>
+  </si>
+  <si>
+    <t>interfaceEdit2754</t>
+  </si>
+  <si>
+    <t>10.37.16.19</t>
+  </si>
+  <si>
+    <t>10.34.82.77</t>
+  </si>
+  <si>
+    <t>IPTransit2636</t>
+  </si>
+  <si>
+    <t>iptransitdomain2636.com</t>
+  </si>
+  <si>
+    <t>iptransitocn2636</t>
+  </si>
+  <si>
+    <t>testreference2636</t>
+  </si>
+  <si>
+    <t>iptransitcontact2636</t>
+  </si>
+  <si>
+    <t>iptransit_2636@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_2636</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_2636</t>
+  </si>
+  <si>
+    <t>IPTransitService_2636</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2636</t>
+  </si>
+  <si>
+    <t>User_2636</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2636@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit2636</t>
+  </si>
+  <si>
+    <t>Useredit2636</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_2636@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_2636</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_2636</t>
+  </si>
+  <si>
+    <t>IPTransitedit_2636@gmail.com</t>
+  </si>
+  <si>
+    <t>Iptdevice2636</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit2636</t>
+  </si>
+  <si>
+    <t>interface2636</t>
+  </si>
+  <si>
+    <t>interfaceEdit2636</t>
+  </si>
+  <si>
+    <t>10.32.46.18</t>
+  </si>
+  <si>
+    <t>10.54.82.48</t>
+  </si>
+  <si>
+    <t>IPTransit1708</t>
+  </si>
+  <si>
+    <t>iptransitdomain1708.com</t>
+  </si>
+  <si>
+    <t>iptransitocn1708</t>
+  </si>
+  <si>
+    <t>testreference1708</t>
+  </si>
+  <si>
+    <t>iptransitcontact1708</t>
+  </si>
+  <si>
+    <t>iptransit_1708@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_1708</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_1708</t>
+  </si>
+  <si>
+    <t>IPTransitService_1708</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1708</t>
+  </si>
+  <si>
+    <t>User_1708</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1708@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit1708</t>
+  </si>
+  <si>
+    <t>Useredit1708</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_1708@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_1708</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_1708</t>
+  </si>
+  <si>
+    <t>IPTransitedit_1708@gmail.com</t>
+  </si>
+  <si>
+    <t>Iptdevice1708</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit1708</t>
+  </si>
+  <si>
+    <t>interface1708</t>
+  </si>
+  <si>
+    <t>interfaceEdit1708</t>
+  </si>
+  <si>
+    <t>IPTransit1815</t>
+  </si>
+  <si>
+    <t>iptransitdomain1815.com</t>
+  </si>
+  <si>
+    <t>iptransitocn1815</t>
+  </si>
+  <si>
+    <t>testreference1815</t>
+  </si>
+  <si>
+    <t>iptransitcontact1815</t>
+  </si>
+  <si>
+    <t>iptransit_1815@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_1815</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_1815</t>
+  </si>
+  <si>
+    <t>IPTransitService_1815</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1815</t>
+  </si>
+  <si>
+    <t>User_1815</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1815@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit1815</t>
+  </si>
+  <si>
+    <t>Useredit1815</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_1815@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_1815</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_1815</t>
+  </si>
+  <si>
+    <t>IPTransitedit_1815@gmail.com</t>
+  </si>
+  <si>
+    <t>Iptdevice1815</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit1815</t>
+  </si>
+  <si>
+    <t>interface1815</t>
+  </si>
+  <si>
+    <t>interfaceEdit1815</t>
+  </si>
+  <si>
+    <t>IPTransit1905</t>
+  </si>
+  <si>
+    <t>iptransitdomain1905.com</t>
+  </si>
+  <si>
+    <t>iptransitocn1905</t>
+  </si>
+  <si>
+    <t>testreference1905</t>
+  </si>
+  <si>
+    <t>iptransitcontact1905</t>
+  </si>
+  <si>
+    <t>iptransit_1905@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_1905</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_1905</t>
+  </si>
+  <si>
+    <t>IPTransitService_1905</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1905</t>
+  </si>
+  <si>
+    <t>User_1905</t>
+  </si>
+  <si>
+    <t>IPTransitUser_1905@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit1905</t>
+  </si>
+  <si>
+    <t>Useredit1905</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_1905@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_1905</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_1905</t>
+  </si>
+  <si>
+    <t>IPTransitedit_1905@gmail.com</t>
+  </si>
+  <si>
+    <t>Iptdevice1905</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit1905</t>
+  </si>
+  <si>
+    <t>interface1905</t>
+  </si>
+  <si>
+    <t>interfaceEdit1905</t>
+  </si>
+  <si>
+    <t>IPTransit2565</t>
+  </si>
+  <si>
+    <t>iptransitdomain2565.com</t>
+  </si>
+  <si>
+    <t>iptransitocn2565</t>
+  </si>
+  <si>
+    <t>testreference2565</t>
+  </si>
+  <si>
+    <t>iptransitcontact2565</t>
+  </si>
+  <si>
+    <t>iptransit_2565@test.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrder_2565</t>
+  </si>
+  <si>
+    <t>IPTransitRFI_2565</t>
+  </si>
+  <si>
+    <t>IPTransitService_2565</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2565</t>
+  </si>
+  <si>
+    <t>User_2565</t>
+  </si>
+  <si>
+    <t>IPTransitUser_2565@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitUser_edit2565</t>
+  </si>
+  <si>
+    <t>Useredit2565</t>
+  </si>
+  <si>
+    <t>IPTransitUseredit_2565@gmail.com</t>
+  </si>
+  <si>
+    <t>IPTransitOrderedit_2565</t>
+  </si>
+  <si>
+    <t>IPTransitRFIedit_2565</t>
+  </si>
+  <si>
+    <t>IPTransitedit_2565@gmail.com</t>
+  </si>
+  <si>
+    <t>Iptdevice2565</t>
+  </si>
+  <si>
+    <t>IptdeviceEdit2565</t>
+  </si>
+  <si>
+    <t>interface2565</t>
+  </si>
+  <si>
+    <t>interfaceEdit2565</t>
+  </si>
+  <si>
+    <t>10.49.61.57</t>
+  </si>
+  <si>
+    <t>10.35.26.14</t>
+  </si>
+  <si>
+    <t>10.32.24.19</t>
+  </si>
+  <si>
+    <t>10.31.64.44</t>
+  </si>
+  <si>
+    <t>10.28.18.36</t>
+  </si>
+  <si>
+    <t>10.37.72.45</t>
+  </si>
+  <si>
+    <t>10.31.52.16</t>
+  </si>
+  <si>
+    <t>10.29.86.55</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1623,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1629,6 +1633,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +1658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1668,9 +1678,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1709,6 +1716,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1992,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IS7"/>
+  <dimension ref="A1:IT7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2212,9 +2226,10 @@
     <col min="245" max="245" width="25.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="246" max="248" width="9.140625" style="2" collapsed="1"/>
     <col min="249" max="249" width="43" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="250" max="265" width="9.140625" style="2" collapsed="1"/>
-    <col min="266" max="266" width="27.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="267" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="250" max="252" width="9.140625" style="2" collapsed="1"/>
+    <col min="253" max="253" width="43" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="254" max="254" width="9.140625" style="2"/>
+    <col min="255" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:253" ht="27" customHeight="1">
@@ -2224,25 +2239,25 @@
       <c r="B1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2275,28 +2290,28 @@
       <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="28" t="s">
         <v>22</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -2374,28 +2389,28 @@
       <c r="AZ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="28" t="s">
         <v>372</v>
       </c>
       <c r="BI1" s="1" t="s">
@@ -2527,454 +2542,454 @@
       <c r="CY1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="CZ1" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="DA1" s="11" t="s">
+      <c r="DA1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="DB1" s="13" t="s">
+      <c r="DB1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="DC1" s="13" t="s">
+      <c r="DC1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="DD1" s="13" t="s">
+      <c r="DD1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="DE1" s="13" t="s">
+      <c r="DE1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="DF1" s="13" t="s">
+      <c r="DF1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="DG1" s="13" t="s">
+      <c r="DG1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="DH1" s="13" t="s">
+      <c r="DH1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="DI1" s="13" t="s">
+      <c r="DI1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="DJ1" s="13" t="s">
+      <c r="DJ1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="DK1" s="13" t="s">
+      <c r="DK1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="DL1" s="13" t="s">
+      <c r="DL1" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="DM1" s="13" t="s">
+      <c r="DM1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="DN1" s="13" t="s">
+      <c r="DN1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="DO1" s="13" t="s">
+      <c r="DO1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="DP1" s="13" t="s">
+      <c r="DP1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="DQ1" s="13" t="s">
+      <c r="DQ1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="DR1" s="13" t="s">
+      <c r="DR1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="DS1" s="13" t="s">
+      <c r="DS1" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="DT1" s="13" t="s">
+      <c r="DT1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="DU1" s="13" t="s">
+      <c r="DU1" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="DV1" s="13" t="s">
+      <c r="DV1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="DW1" s="13" t="s">
+      <c r="DW1" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="DX1" s="13" t="s">
+      <c r="DX1" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="DY1" s="13" t="s">
+      <c r="DY1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="DZ1" s="13" t="s">
+      <c r="DZ1" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="EA1" s="13" t="s">
+      <c r="EA1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="EB1" s="13" t="s">
+      <c r="EB1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="EC1" s="13" t="s">
+      <c r="EC1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="ED1" s="13" t="s">
+      <c r="ED1" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="EE1" s="13" t="s">
+      <c r="EE1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EF1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="EG1" s="13" t="s">
+      <c r="EG1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="EH1" s="13" t="s">
+      <c r="EH1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="EI1" s="13" t="s">
+      <c r="EI1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="EJ1" s="13" t="s">
+      <c r="EJ1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="EK1" s="13" t="s">
+      <c r="EK1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="EL1" s="13" t="s">
+      <c r="EL1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="EM1" s="13" t="s">
+      <c r="EM1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="EN1" s="13" t="s">
+      <c r="EN1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="EO1" s="13" t="s">
+      <c r="EO1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="EP1" s="13" t="s">
+      <c r="EP1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="EQ1" s="13" t="s">
+      <c r="EQ1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="ER1" s="13" t="s">
+      <c r="ER1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="ES1" s="13" t="s">
+      <c r="ES1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="ET1" s="13" t="s">
+      <c r="ET1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="EU1" s="13" t="s">
+      <c r="EU1" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="EV1" s="13" t="s">
+      <c r="EV1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="EW1" s="13" t="s">
+      <c r="EW1" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="EX1" s="13" t="s">
+      <c r="EX1" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="EY1" s="13" t="s">
+      <c r="EY1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="EZ1" s="13" t="s">
+      <c r="EZ1" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="FA1" s="13" t="s">
+      <c r="FA1" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="FB1" s="13" t="s">
+      <c r="FB1" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="FC1" s="13" t="s">
+      <c r="FC1" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="FD1" s="13" t="s">
+      <c r="FD1" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="FE1" s="13" t="s">
+      <c r="FE1" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="FF1" s="13" t="s">
+      <c r="FF1" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="FG1" s="13" t="s">
+      <c r="FG1" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="FH1" s="13" t="s">
+      <c r="FH1" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="FI1" s="13" t="s">
+      <c r="FI1" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="FJ1" s="13" t="s">
+      <c r="FJ1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="FK1" s="13" t="s">
+      <c r="FK1" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="FL1" s="13" t="s">
+      <c r="FL1" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="FM1" s="13" t="s">
+      <c r="FM1" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="FN1" s="13" t="s">
+      <c r="FN1" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="FO1" s="13" t="s">
+      <c r="FO1" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="FP1" s="13" t="s">
+      <c r="FP1" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="FQ1" s="13" t="s">
+      <c r="FQ1" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="FR1" s="13" t="s">
+      <c r="FR1" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="FS1" s="13" t="s">
+      <c r="FS1" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="FT1" s="13" t="s">
+      <c r="FT1" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="FU1" s="13" t="s">
+      <c r="FU1" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="FV1" s="13" t="s">
+      <c r="FV1" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="FW1" s="13" t="s">
+      <c r="FW1" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="FX1" s="13" t="s">
+      <c r="FX1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="FY1" s="13" t="s">
+      <c r="FY1" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="FZ1" s="13" t="s">
+      <c r="FZ1" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="GA1" s="13" t="s">
+      <c r="GA1" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="GB1" s="13" t="s">
+      <c r="GB1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="GC1" s="13" t="s">
+      <c r="GC1" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="GD1" s="13" t="s">
+      <c r="GD1" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="GE1" s="13" t="s">
+      <c r="GE1" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="GF1" s="13" t="s">
+      <c r="GF1" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="GG1" s="13" t="s">
+      <c r="GG1" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="GH1" s="13" t="s">
+      <c r="GH1" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="GI1" s="13" t="s">
+      <c r="GI1" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="GJ1" s="13" t="s">
+      <c r="GJ1" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="GK1" s="13" t="s">
+      <c r="GK1" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="GL1" s="13" t="s">
+      <c r="GL1" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="GM1" s="13" t="s">
+      <c r="GM1" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="GN1" s="13" t="s">
+      <c r="GN1" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="GO1" s="13" t="s">
+      <c r="GO1" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="GP1" s="13" t="s">
+      <c r="GP1" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="GQ1" s="13" t="s">
+      <c r="GQ1" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="GR1" s="13" t="s">
+      <c r="GR1" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="GS1" s="13" t="s">
+      <c r="GS1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="GT1" s="13" t="s">
+      <c r="GT1" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="GU1" s="13" t="s">
+      <c r="GU1" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="GV1" s="13" t="s">
+      <c r="GV1" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="GW1" s="13" t="s">
+      <c r="GW1" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="GX1" s="13" t="s">
+      <c r="GX1" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="GY1" s="13" t="s">
+      <c r="GY1" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="GZ1" s="13" t="s">
+      <c r="GZ1" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="HA1" s="13" t="s">
+      <c r="HA1" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="HB1" s="13" t="s">
+      <c r="HB1" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="HC1" s="13" t="s">
+      <c r="HC1" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="HD1" s="13" t="s">
+      <c r="HD1" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="HE1" s="13" t="s">
+      <c r="HE1" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="HF1" s="13" t="s">
+      <c r="HF1" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="HG1" s="13" t="s">
+      <c r="HG1" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="HH1" s="13" t="s">
+      <c r="HH1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="HI1" s="13" t="s">
+      <c r="HI1" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="HJ1" s="13" t="s">
+      <c r="HJ1" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" s="13" t="s">
+      <c r="HK1" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" s="13" t="s">
+      <c r="HL1" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" s="13" t="s">
+      <c r="HM1" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" s="13" t="s">
+      <c r="HN1" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" s="13" t="s">
+      <c r="HO1" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" s="13" t="s">
+      <c r="HP1" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" s="13" t="s">
+      <c r="HQ1" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" s="13" t="s">
+      <c r="HR1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" s="13" t="s">
+      <c r="HS1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" s="13" t="s">
+      <c r="HT1" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" s="13" t="s">
+      <c r="HU1" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" s="13" t="s">
+      <c r="HV1" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" s="13" t="s">
+      <c r="HW1" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" s="13" t="s">
+      <c r="HX1" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="13" t="s">
+      <c r="HY1" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" s="13" t="s">
+      <c r="HZ1" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" s="13" t="s">
+      <c r="IA1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="IB1" s="13" t="s">
+      <c r="IB1" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="IC1" s="13" t="s">
+      <c r="IC1" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="ID1" s="13" t="s">
+      <c r="ID1" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="IE1" s="13" t="s">
+      <c r="IE1" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="IF1" s="13" t="s">
+      <c r="IF1" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="IG1" s="13" t="s">
+      <c r="IG1" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="IH1" s="13" t="s">
+      <c r="IH1" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="II1" s="13" t="s">
+      <c r="II1" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="IJ1" s="13" t="s">
+      <c r="IJ1" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="IK1" s="13" t="s">
+      <c r="IK1" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="IL1" s="13" t="s">
+      <c r="IL1" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="IM1" s="13" t="s">
+      <c r="IM1" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="IN1" s="13" t="s">
+      <c r="IN1" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="IO1" s="13" t="s">
+      <c r="IO1" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="IP1" s="13" t="s">
+      <c r="IP1" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="IQ1" s="13" t="s">
+      <c r="IQ1" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="IR1" s="13" t="s">
+      <c r="IR1" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="IS1" s="13" t="s">
+      <c r="IS1" s="12" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2992,31 +3007,31 @@
         <v>61</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>240</v>
@@ -3043,27 +3058,27 @@
         <v>5</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="22" t="s">
+      <c r="AC2" s="21" t="s">
         <v>365</v>
       </c>
       <c r="AD2" s="2" t="s">
@@ -3097,10 +3112,10 @@
         <v>36</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>74</v>
@@ -3109,19 +3124,19 @@
         <v>41</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>237</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>164</v>
@@ -3130,7 +3145,7 @@
         <v>54</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>238</v>
@@ -3139,25 +3154,25 @@
         <v>86</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="BD2" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="BD2" s="24" t="s">
         <v>86</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BG2" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH2" s="25" t="s">
-        <v>388</v>
+        <v>429</v>
+      </c>
+      <c r="BG2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH2" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="BI2" s="6" t="s">
         <v>62</v>
@@ -3171,14 +3186,14 @@
       <c r="BL2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BM2" s="22" t="s">
+      <c r="BM2" s="21" t="s">
         <v>366</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="BP2" s="2" t="s">
         <v>239</v>
@@ -3198,13 +3213,13 @@
       <c r="BU2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BV2" s="19" t="s">
+      <c r="BV2" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="BW2" s="19" t="s">
+      <c r="BW2" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="BX2" s="19" t="s">
+      <c r="BX2" s="18" t="s">
         <v>274</v>
       </c>
       <c r="BY2" s="3" t="s">
@@ -3216,22 +3231,22 @@
       <c r="CA2" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CB2" s="20" t="s">
+      <c r="CB2" s="19" t="s">
         <v>278</v>
       </c>
       <c r="CC2" s="3">
-        <v>11100170513</v>
+        <v>11100170813</v>
       </c>
       <c r="CD2" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CE2" s="19" t="s">
+      <c r="CE2" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="CF2" s="19" t="s">
+      <c r="CF2" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="CG2" s="19" t="s">
+      <c r="CG2" s="18" t="s">
         <v>274</v>
       </c>
       <c r="CH2" s="3" t="s">
@@ -3240,7 +3255,7 @@
       <c r="CI2" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CJ2" s="21" t="s">
+      <c r="CJ2" s="20" t="s">
         <v>282</v>
       </c>
       <c r="CK2" s="2" t="s">
@@ -3255,13 +3270,13 @@
       <c r="CN2" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CO2" s="21" t="s">
+      <c r="CO2" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="CP2" s="20" t="s">
+      <c r="CP2" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="CQ2" s="21" t="s">
+      <c r="CQ2" s="20" t="s">
         <v>284</v>
       </c>
       <c r="CR2" s="3" t="s">
@@ -3288,88 +3303,88 @@
       <c r="CY2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="CZ2" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="DA2" s="12" t="s">
+      <c r="CZ2" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="DA2" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="DB2" s="14" t="s">
+      <c r="DB2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DC2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DD2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DE2" s="14" t="s">
+      <c r="DC2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DF2" s="14" t="s">
+      <c r="DF2" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="DG2" s="14" t="s">
+      <c r="DG2" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="DH2" s="14" t="s">
+      <c r="DH2" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="DI2" s="14" t="s">
+      <c r="DI2" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="DJ2" s="14" t="s">
+      <c r="DJ2" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="DK2" s="14" t="s">
+      <c r="DK2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="DL2" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="DM2" s="15" t="s">
+      <c r="DL2" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="DM2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DN2" s="16" t="s">
+      <c r="DN2" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="DO2" s="15" t="s">
+      <c r="DO2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DP2" s="15" t="s">
+      <c r="DP2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="DQ2" s="15" t="s">
+      <c r="DQ2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="DR2" s="15" t="s">
+      <c r="DR2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="DS2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DT2" s="15" t="s">
+      <c r="DS2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT2" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="DU2" s="15" t="s">
+      <c r="DU2" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="DV2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW2" s="15" t="s">
+      <c r="DV2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW2" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="DX2" s="15" t="s">
+      <c r="DX2" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="DY2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DZ2" s="15" t="s">
+      <c r="DY2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ2" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="EA2" s="15" t="s">
+      <c r="EA2" s="14" t="s">
         <v>321</v>
       </c>
       <c r="EB2" s="2" t="s">
@@ -3378,14 +3393,14 @@
       <c r="EC2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="ED2" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="EE2" s="25" t="s">
+      <c r="ED2" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="EE2" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="EF2" s="25" t="s">
-        <v>494</v>
+      <c r="EF2" s="24" t="s">
+        <v>517</v>
       </c>
       <c r="EG2" s="2" t="s">
         <v>61</v>
@@ -3462,25 +3477,25 @@
       <c r="FE2" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="FF2" s="17" t="s">
+      <c r="FF2" s="16" t="s">
         <v>368</v>
       </c>
       <c r="FG2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="FH2" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="FI2" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="FJ2" s="18" t="s">
+      <c r="FH2" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="FI2" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="FJ2" s="17" t="s">
         <v>76</v>
       </c>
       <c r="FK2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="FL2" s="17" t="s">
+      <c r="FL2" s="16" t="s">
         <v>171</v>
       </c>
       <c r="FM2" s="2" t="s">
@@ -3567,16 +3582,16 @@
       <c r="GN2" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="GO2" s="16" t="s">
+      <c r="GO2" s="15" t="s">
         <v>345</v>
       </c>
       <c r="GP2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="GQ2" s="16" t="s">
+      <c r="GQ2" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="GR2" s="16" t="s">
+      <c r="GR2" s="15" t="s">
         <v>181</v>
       </c>
       <c r="GS2" s="2" t="s">
@@ -3621,7 +3636,7 @@
       <c r="HF2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="HG2" s="16" t="s">
+      <c r="HG2" s="15" t="s">
         <v>213</v>
       </c>
       <c r="HH2" s="2" t="s">
@@ -3654,7 +3669,7 @@
       <c r="HQ2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="HR2" s="16" t="s">
+      <c r="HR2" s="15" t="s">
         <v>76</v>
       </c>
       <c r="HS2" s="2" t="s">
@@ -3699,13 +3714,13 @@
       <c r="IF2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="IG2" s="18" t="s">
+      <c r="IG2" s="17" t="s">
         <v>76</v>
       </c>
       <c r="IH2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="II2" s="17" t="s">
+      <c r="II2" s="16" t="s">
         <v>171</v>
       </c>
       <c r="IJ2" s="2" t="s">
@@ -3741,7 +3756,7 @@
     </row>
     <row r="3" spans="1:253" ht="18" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>289</v>
@@ -3753,31 +3768,31 @@
         <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>240</v>
@@ -3804,27 +3819,27 @@
         <v>5</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="22" t="s">
+      <c r="AC3" s="21" t="s">
         <v>365</v>
       </c>
       <c r="AD3" s="2" t="s">
@@ -3858,10 +3873,10 @@
         <v>36</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>74</v>
@@ -3870,19 +3885,19 @@
         <v>41</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>237</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="AW3" s="2" t="s">
         <v>164</v>
@@ -3891,7 +3906,7 @@
         <v>54</v>
       </c>
       <c r="AY3" s="5" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="AZ3" s="2" t="s">
         <v>238</v>
@@ -3900,25 +3915,25 @@
         <v>86</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="BD3" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="BD3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="BG3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH3" s="25" t="s">
-        <v>406</v>
+        <v>451</v>
+      </c>
+      <c r="BG3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH3" s="24" t="s">
+        <v>459</v>
       </c>
       <c r="BI3" s="6" t="s">
         <v>62</v>
@@ -3932,14 +3947,14 @@
       <c r="BL3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BM3" s="22" t="s">
+      <c r="BM3" s="21" t="s">
         <v>366</v>
       </c>
       <c r="BN3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BO3" s="5" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="BP3" s="2" t="s">
         <v>239</v>
@@ -3959,13 +3974,13 @@
       <c r="BU3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BV3" s="19" t="s">
+      <c r="BV3" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="BW3" s="19" t="s">
+      <c r="BW3" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="BX3" s="19" t="s">
+      <c r="BX3" s="18" t="s">
         <v>274</v>
       </c>
       <c r="BY3" s="3" t="s">
@@ -3977,22 +3992,22 @@
       <c r="CA3" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CB3" s="20" t="s">
+      <c r="CB3" s="19" t="s">
         <v>278</v>
       </c>
       <c r="CC3" s="3">
-        <v>11100181213</v>
+        <v>11100181513</v>
       </c>
       <c r="CD3" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CE3" s="19" t="s">
+      <c r="CE3" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="CF3" s="19" t="s">
+      <c r="CF3" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="CG3" s="19" t="s">
+      <c r="CG3" s="18" t="s">
         <v>274</v>
       </c>
       <c r="CH3" s="3" t="s">
@@ -4001,7 +4016,7 @@
       <c r="CI3" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CJ3" s="21" t="s">
+      <c r="CJ3" s="20" t="s">
         <v>282</v>
       </c>
       <c r="CK3" s="2" t="s">
@@ -4016,13 +4031,13 @@
       <c r="CN3" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CO3" s="21" t="s">
+      <c r="CO3" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="CP3" s="20" t="s">
+      <c r="CP3" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="CQ3" s="21" t="s">
+      <c r="CQ3" s="20" t="s">
         <v>284</v>
       </c>
       <c r="CR3" s="3" t="s">
@@ -4049,88 +4064,88 @@
       <c r="CY3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="CZ3" s="23" t="s">
-        <v>482</v>
-      </c>
-      <c r="DA3" s="14" t="s">
+      <c r="CZ3" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="DA3" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="DB3" s="14" t="s">
+      <c r="DB3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DC3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DD3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DE3" s="14" t="s">
+      <c r="DC3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DF3" s="14" t="s">
+      <c r="DF3" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="DG3" s="14" t="s">
+      <c r="DG3" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="DH3" s="14" t="s">
+      <c r="DH3" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="DI3" s="14" t="s">
+      <c r="DI3" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="DJ3" s="14" t="s">
+      <c r="DJ3" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="DK3" s="14" t="s">
+      <c r="DK3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="DL3" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="DM3" s="15" t="s">
+      <c r="DL3" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="DM3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DN3" s="16" t="s">
+      <c r="DN3" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="DO3" s="15" t="s">
+      <c r="DO3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DP3" s="15" t="s">
+      <c r="DP3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="DQ3" s="15" t="s">
+      <c r="DQ3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="DR3" s="15" t="s">
+      <c r="DR3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="DS3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DT3" s="15" t="s">
+      <c r="DS3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT3" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="DU3" s="15" t="s">
+      <c r="DU3" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="DV3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW3" s="15" t="s">
+      <c r="DV3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW3" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="DX3" s="15" t="s">
+      <c r="DX3" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="DY3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DZ3" s="15" t="s">
+      <c r="DY3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ3" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="EA3" s="15" t="s">
+      <c r="EA3" s="14" t="s">
         <v>321</v>
       </c>
       <c r="EB3" s="2" t="s">
@@ -4139,14 +4154,14 @@
       <c r="EC3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="ED3" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="EE3" s="25" t="s">
+      <c r="ED3" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="EE3" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="EF3" s="25" t="s">
-        <v>496</v>
+      <c r="EF3" s="24" t="s">
+        <v>516</v>
       </c>
       <c r="EG3" s="2" t="s">
         <v>61</v>
@@ -4223,25 +4238,25 @@
       <c r="FE3" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="FF3" s="17" t="s">
+      <c r="FF3" s="16" t="s">
         <v>368</v>
       </c>
       <c r="FG3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="FH3" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="FI3" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="FJ3" s="18" t="s">
+      <c r="FH3" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="FI3" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="FJ3" s="17" t="s">
         <v>76</v>
       </c>
       <c r="FK3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="FL3" s="17" t="s">
+      <c r="FL3" s="16" t="s">
         <v>171</v>
       </c>
       <c r="FM3" s="2" t="s">
@@ -4328,16 +4343,16 @@
       <c r="GN3" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="GO3" s="16" t="s">
+      <c r="GO3" s="15" t="s">
         <v>345</v>
       </c>
       <c r="GP3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="GQ3" s="16" t="s">
+      <c r="GQ3" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="GR3" s="16" t="s">
+      <c r="GR3" s="15" t="s">
         <v>181</v>
       </c>
       <c r="GS3" s="2" t="s">
@@ -4382,7 +4397,7 @@
       <c r="HF3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="HG3" s="16" t="s">
+      <c r="HG3" s="15" t="s">
         <v>213</v>
       </c>
       <c r="HH3" s="2" t="s">
@@ -4415,7 +4430,7 @@
       <c r="HQ3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="HR3" s="16" t="s">
+      <c r="HR3" s="15" t="s">
         <v>76</v>
       </c>
       <c r="HS3" s="2" t="s">
@@ -4460,13 +4475,13 @@
       <c r="IF3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="IG3" s="18" t="s">
+      <c r="IG3" s="17" t="s">
         <v>76</v>
       </c>
       <c r="IH3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="II3" s="17" t="s">
+      <c r="II3" s="16" t="s">
         <v>171</v>
       </c>
       <c r="IJ3" s="2" t="s">
@@ -4502,7 +4517,7 @@
     </row>
     <row r="4" spans="1:253" ht="18" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>289</v>
@@ -4514,31 +4529,31 @@
         <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>240</v>
@@ -4565,27 +4580,27 @@
         <v>5</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="22" t="s">
+      <c r="AC4" s="21" t="s">
         <v>365</v>
       </c>
       <c r="AD4" s="2" t="s">
@@ -4619,10 +4634,10 @@
         <v>36</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="AP4" s="2" t="s">
         <v>74</v>
@@ -4631,19 +4646,19 @@
         <v>41</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>237</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="AW4" s="2" t="s">
         <v>164</v>
@@ -4652,7 +4667,7 @@
         <v>54</v>
       </c>
       <c r="AY4" s="5" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="AZ4" s="2" t="s">
         <v>238</v>
@@ -4661,25 +4676,25 @@
         <v>86</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="BC4" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="BD4" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="BD4" s="24" t="s">
         <v>86</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="BF4" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="BG4" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH4" s="25" t="s">
-        <v>424</v>
+        <v>473</v>
+      </c>
+      <c r="BG4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH4" s="24" t="s">
+        <v>481</v>
       </c>
       <c r="BI4" s="6" t="s">
         <v>62</v>
@@ -4693,14 +4708,14 @@
       <c r="BL4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BM4" s="22" t="s">
+      <c r="BM4" s="21" t="s">
         <v>366</v>
       </c>
       <c r="BN4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BO4" s="5" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="BP4" s="2" t="s">
         <v>239</v>
@@ -4720,13 +4735,13 @@
       <c r="BU4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BV4" s="19" t="s">
+      <c r="BV4" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="BW4" s="19" t="s">
+      <c r="BW4" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="BX4" s="19" t="s">
+      <c r="BX4" s="18" t="s">
         <v>274</v>
       </c>
       <c r="BY4" s="3" t="s">
@@ -4738,22 +4753,22 @@
       <c r="CA4" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CB4" s="20" t="s">
+      <c r="CB4" s="19" t="s">
         <v>278</v>
       </c>
       <c r="CC4" s="3">
-        <v>11100190213</v>
+        <v>11100190513</v>
       </c>
       <c r="CD4" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CE4" s="19" t="s">
+      <c r="CE4" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="CF4" s="19" t="s">
+      <c r="CF4" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="CG4" s="19" t="s">
+      <c r="CG4" s="18" t="s">
         <v>274</v>
       </c>
       <c r="CH4" s="3" t="s">
@@ -4762,7 +4777,7 @@
       <c r="CI4" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CJ4" s="21" t="s">
+      <c r="CJ4" s="20" t="s">
         <v>282</v>
       </c>
       <c r="CK4" s="2" t="s">
@@ -4777,13 +4792,13 @@
       <c r="CN4" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CO4" s="21" t="s">
+      <c r="CO4" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="CP4" s="20" t="s">
+      <c r="CP4" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="CQ4" s="21" t="s">
+      <c r="CQ4" s="20" t="s">
         <v>284</v>
       </c>
       <c r="CR4" s="3" t="s">
@@ -4810,88 +4825,88 @@
       <c r="CY4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="CZ4" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="DA4" s="14" t="s">
+      <c r="CZ4" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="DA4" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="DB4" s="14" t="s">
+      <c r="DB4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DC4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DD4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DE4" s="14" t="s">
+      <c r="DC4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DF4" s="14" t="s">
+      <c r="DF4" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="DG4" s="14" t="s">
+      <c r="DG4" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="DH4" s="14" t="s">
+      <c r="DH4" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="DI4" s="14" t="s">
+      <c r="DI4" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="DJ4" s="14" t="s">
+      <c r="DJ4" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="DK4" s="14" t="s">
+      <c r="DK4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="DL4" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="DM4" s="15" t="s">
+      <c r="DL4" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="DM4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DN4" s="16" t="s">
+      <c r="DN4" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="DO4" s="15" t="s">
+      <c r="DO4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DP4" s="15" t="s">
+      <c r="DP4" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="DQ4" s="15" t="s">
+      <c r="DQ4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="DR4" s="15" t="s">
+      <c r="DR4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="DS4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DT4" s="15" t="s">
+      <c r="DS4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT4" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="DU4" s="15" t="s">
+      <c r="DU4" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="DV4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW4" s="15" t="s">
+      <c r="DV4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW4" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="DX4" s="15" t="s">
+      <c r="DX4" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="DY4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DZ4" s="15" t="s">
+      <c r="DY4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ4" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="EA4" s="15" t="s">
+      <c r="EA4" s="14" t="s">
         <v>321</v>
       </c>
       <c r="EB4" s="2" t="s">
@@ -4900,14 +4915,14 @@
       <c r="EC4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="ED4" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="EE4" s="25" t="s">
+      <c r="ED4" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="EE4" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="EF4" s="25" t="s">
-        <v>498</v>
+      <c r="EF4" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="EG4" s="2" t="s">
         <v>61</v>
@@ -4984,25 +4999,25 @@
       <c r="FE4" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="FF4" s="17" t="s">
+      <c r="FF4" s="16" t="s">
         <v>368</v>
       </c>
       <c r="FG4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="FH4" s="27" t="s">
-        <v>509</v>
-      </c>
-      <c r="FI4" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="FJ4" s="18" t="s">
+      <c r="FH4" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="FI4" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="FJ4" s="17" t="s">
         <v>76</v>
       </c>
       <c r="FK4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="FL4" s="17" t="s">
+      <c r="FL4" s="16" t="s">
         <v>171</v>
       </c>
       <c r="FM4" s="2" t="s">
@@ -5089,16 +5104,16 @@
       <c r="GN4" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="GO4" s="16" t="s">
+      <c r="GO4" s="15" t="s">
         <v>345</v>
       </c>
       <c r="GP4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="GQ4" s="16" t="s">
+      <c r="GQ4" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="GR4" s="16" t="s">
+      <c r="GR4" s="15" t="s">
         <v>181</v>
       </c>
       <c r="GS4" s="2" t="s">
@@ -5143,7 +5158,7 @@
       <c r="HF4" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="HG4" s="16" t="s">
+      <c r="HG4" s="15" t="s">
         <v>213</v>
       </c>
       <c r="HH4" s="2" t="s">
@@ -5176,7 +5191,7 @@
       <c r="HQ4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="HR4" s="16" t="s">
+      <c r="HR4" s="15" t="s">
         <v>76</v>
       </c>
       <c r="HS4" s="2" t="s">
@@ -5221,13 +5236,13 @@
       <c r="IF4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="IG4" s="18" t="s">
+      <c r="IG4" s="17" t="s">
         <v>76</v>
       </c>
       <c r="IH4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="II4" s="17" t="s">
+      <c r="II4" s="16" t="s">
         <v>171</v>
       </c>
       <c r="IJ4" s="2" t="s">
@@ -5275,31 +5290,31 @@
         <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>240</v>
@@ -5326,27 +5341,27 @@
         <v>5</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC5" s="22" t="s">
+      <c r="AC5" s="21" t="s">
         <v>365</v>
       </c>
       <c r="AD5" s="2" t="s">
@@ -5380,10 +5395,10 @@
         <v>36</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="AP5" s="2" t="s">
         <v>74</v>
@@ -5392,19 +5407,19 @@
         <v>41</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>237</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="AW5" s="2" t="s">
         <v>164</v>
@@ -5413,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="AY5" s="5" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="AZ5" s="2" t="s">
         <v>238</v>
@@ -5422,25 +5437,25 @@
         <v>86</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="BC5" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="BD5" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="BD5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="BG5" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH5" s="25" t="s">
-        <v>442</v>
+        <v>495</v>
+      </c>
+      <c r="BG5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH5" s="24" t="s">
+        <v>503</v>
       </c>
       <c r="BI5" s="6" t="s">
         <v>62</v>
@@ -5454,14 +5469,14 @@
       <c r="BL5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BM5" s="22" t="s">
+      <c r="BM5" s="21" t="s">
         <v>366</v>
       </c>
       <c r="BN5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BO5" s="5" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="BP5" s="2" t="s">
         <v>239</v>
@@ -5481,13 +5496,13 @@
       <c r="BU5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BV5" s="19" t="s">
+      <c r="BV5" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="BW5" s="19" t="s">
+      <c r="BW5" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="BX5" s="19" t="s">
+      <c r="BX5" s="18" t="s">
         <v>274</v>
       </c>
       <c r="BY5" s="3" t="s">
@@ -5499,22 +5514,22 @@
       <c r="CA5" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CB5" s="20" t="s">
+      <c r="CB5" s="19" t="s">
         <v>278</v>
       </c>
       <c r="CC5" s="3">
-        <v>11100256213</v>
+        <v>11100256513</v>
       </c>
       <c r="CD5" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CE5" s="19" t="s">
+      <c r="CE5" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="CF5" s="19" t="s">
+      <c r="CF5" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="CG5" s="19" t="s">
+      <c r="CG5" s="18" t="s">
         <v>274</v>
       </c>
       <c r="CH5" s="3" t="s">
@@ -5523,7 +5538,7 @@
       <c r="CI5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CJ5" s="21" t="s">
+      <c r="CJ5" s="20" t="s">
         <v>282</v>
       </c>
       <c r="CK5" s="2" t="s">
@@ -5538,13 +5553,13 @@
       <c r="CN5" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CO5" s="21" t="s">
+      <c r="CO5" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="CP5" s="20" t="s">
+      <c r="CP5" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="CQ5" s="21" t="s">
+      <c r="CQ5" s="20" t="s">
         <v>284</v>
       </c>
       <c r="CR5" s="3" t="s">
@@ -5571,88 +5586,88 @@
       <c r="CY5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="CZ5" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="DA5" s="14" t="s">
+      <c r="CZ5" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="DA5" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="DB5" s="14" t="s">
+      <c r="DB5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DC5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DD5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DE5" s="14" t="s">
+      <c r="DC5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DF5" s="14" t="s">
+      <c r="DF5" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="DG5" s="14" t="s">
+      <c r="DG5" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="DH5" s="14" t="s">
+      <c r="DH5" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="DI5" s="14" t="s">
+      <c r="DI5" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="DJ5" s="14" t="s">
+      <c r="DJ5" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="DK5" s="14" t="s">
+      <c r="DK5" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="DL5" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="DM5" s="15" t="s">
+      <c r="DL5" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="DM5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DN5" s="16" t="s">
+      <c r="DN5" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="DO5" s="15" t="s">
+      <c r="DO5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DP5" s="15" t="s">
+      <c r="DP5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="DQ5" s="15" t="s">
+      <c r="DQ5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="DR5" s="15" t="s">
+      <c r="DR5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="DS5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DT5" s="15" t="s">
+      <c r="DS5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT5" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="DU5" s="15" t="s">
+      <c r="DU5" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="DV5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW5" s="15" t="s">
+      <c r="DV5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW5" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="DX5" s="15" t="s">
+      <c r="DX5" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="DY5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DZ5" s="15" t="s">
+      <c r="DY5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ5" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="EA5" s="15" t="s">
+      <c r="EA5" s="14" t="s">
         <v>321</v>
       </c>
       <c r="EB5" s="2" t="s">
@@ -5661,14 +5676,14 @@
       <c r="EC5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="ED5" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="EE5" s="25" t="s">
+      <c r="ED5" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="EE5" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="EF5" s="25" t="s">
-        <v>500</v>
+      <c r="EF5" s="24" t="s">
+        <v>514</v>
       </c>
       <c r="EG5" s="2" t="s">
         <v>61</v>
@@ -5745,25 +5760,25 @@
       <c r="FE5" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="FF5" s="17" t="s">
+      <c r="FF5" s="16" t="s">
         <v>368</v>
       </c>
       <c r="FG5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="FH5" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="FI5" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="FJ5" s="18" t="s">
+      <c r="FH5" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="FI5" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="FJ5" s="17" t="s">
         <v>76</v>
       </c>
       <c r="FK5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="FL5" s="17" t="s">
+      <c r="FL5" s="16" t="s">
         <v>171</v>
       </c>
       <c r="FM5" s="2" t="s">
@@ -5850,16 +5865,16 @@
       <c r="GN5" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="GO5" s="16" t="s">
+      <c r="GO5" s="15" t="s">
         <v>345</v>
       </c>
       <c r="GP5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="GQ5" s="16" t="s">
+      <c r="GQ5" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="GR5" s="16" t="s">
+      <c r="GR5" s="15" t="s">
         <v>181</v>
       </c>
       <c r="GS5" s="2" t="s">
@@ -5904,7 +5919,7 @@
       <c r="HF5" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="HG5" s="16" t="s">
+      <c r="HG5" s="15" t="s">
         <v>213</v>
       </c>
       <c r="HH5" s="2" t="s">
@@ -5937,7 +5952,7 @@
       <c r="HQ5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="HR5" s="16" t="s">
+      <c r="HR5" s="15" t="s">
         <v>76</v>
       </c>
       <c r="HS5" s="2" t="s">
@@ -5982,13 +5997,13 @@
       <c r="IF5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="IG5" s="18" t="s">
+      <c r="IG5" s="17" t="s">
         <v>76</v>
       </c>
       <c r="IH5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="II5" s="17" t="s">
+      <c r="II5" s="16" t="s">
         <v>171</v>
       </c>
       <c r="IJ5" s="2" t="s">
@@ -6036,31 +6051,31 @@
         <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>240</v>
@@ -6087,27 +6102,27 @@
         <v>5</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="22" t="s">
+      <c r="AC6" s="21" t="s">
         <v>365</v>
       </c>
       <c r="AD6" s="2" t="s">
@@ -6141,10 +6156,10 @@
         <v>36</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="AP6" s="2" t="s">
         <v>74</v>
@@ -6153,19 +6168,19 @@
         <v>41</v>
       </c>
       <c r="AR6" s="5" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>237</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="AW6" s="2" t="s">
         <v>164</v>
@@ -6174,7 +6189,7 @@
         <v>54</v>
       </c>
       <c r="AY6" s="5" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="AZ6" s="2" t="s">
         <v>238</v>
@@ -6183,25 +6198,25 @@
         <v>86</v>
       </c>
       <c r="BB6" s="2" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="BC6" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="BD6" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="BD6" s="24" t="s">
         <v>86</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="BF6" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="BG6" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH6" s="25" t="s">
-        <v>460</v>
+        <v>405</v>
+      </c>
+      <c r="BG6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH6" s="24" t="s">
+        <v>413</v>
       </c>
       <c r="BI6" s="6" t="s">
         <v>62</v>
@@ -6215,14 +6230,14 @@
       <c r="BL6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BM6" s="22" t="s">
+      <c r="BM6" s="21" t="s">
         <v>366</v>
       </c>
       <c r="BN6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BO6" s="5" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="BP6" s="2" t="s">
         <v>239</v>
@@ -6242,13 +6257,13 @@
       <c r="BU6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BV6" s="19" t="s">
+      <c r="BV6" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="BW6" s="19" t="s">
+      <c r="BW6" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="BX6" s="19" t="s">
+      <c r="BX6" s="18" t="s">
         <v>274</v>
       </c>
       <c r="BY6" s="3" t="s">
@@ -6260,22 +6275,22 @@
       <c r="CA6" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CB6" s="20" t="s">
+      <c r="CB6" s="19" t="s">
         <v>278</v>
       </c>
       <c r="CC6" s="3">
-        <v>11100263313</v>
+        <v>11100263613</v>
       </c>
       <c r="CD6" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CE6" s="19" t="s">
+      <c r="CE6" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="CF6" s="19" t="s">
+      <c r="CF6" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="CG6" s="19" t="s">
+      <c r="CG6" s="18" t="s">
         <v>274</v>
       </c>
       <c r="CH6" s="3" t="s">
@@ -6284,7 +6299,7 @@
       <c r="CI6" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CJ6" s="21" t="s">
+      <c r="CJ6" s="20" t="s">
         <v>282</v>
       </c>
       <c r="CK6" s="2" t="s">
@@ -6299,13 +6314,13 @@
       <c r="CN6" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CO6" s="21" t="s">
+      <c r="CO6" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="CP6" s="20" t="s">
+      <c r="CP6" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="CQ6" s="21" t="s">
+      <c r="CQ6" s="20" t="s">
         <v>284</v>
       </c>
       <c r="CR6" s="3" t="s">
@@ -6332,88 +6347,88 @@
       <c r="CY6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="CZ6" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="DA6" s="14" t="s">
+      <c r="CZ6" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="DA6" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="DB6" s="14" t="s">
+      <c r="DB6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DC6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DD6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DE6" s="14" t="s">
+      <c r="DC6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DF6" s="14" t="s">
+      <c r="DF6" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="DG6" s="14" t="s">
+      <c r="DG6" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="DH6" s="14" t="s">
+      <c r="DH6" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="DI6" s="14" t="s">
+      <c r="DI6" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="DJ6" s="14" t="s">
+      <c r="DJ6" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="DK6" s="14" t="s">
+      <c r="DK6" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="DL6" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="DM6" s="15" t="s">
+      <c r="DL6" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="DM6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DN6" s="16" t="s">
+      <c r="DN6" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="DO6" s="15" t="s">
+      <c r="DO6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DP6" s="15" t="s">
+      <c r="DP6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="DQ6" s="15" t="s">
+      <c r="DQ6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="DR6" s="15" t="s">
+      <c r="DR6" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="DS6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DT6" s="15" t="s">
+      <c r="DS6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT6" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="DU6" s="15" t="s">
+      <c r="DU6" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="DV6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW6" s="15" t="s">
+      <c r="DV6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW6" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="DX6" s="15" t="s">
+      <c r="DX6" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="DY6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DZ6" s="15" t="s">
+      <c r="DY6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ6" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="EA6" s="15" t="s">
+      <c r="EA6" s="14" t="s">
         <v>321</v>
       </c>
       <c r="EB6" s="2" t="s">
@@ -6422,14 +6437,14 @@
       <c r="EC6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="ED6" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="EE6" s="25" t="s">
+      <c r="ED6" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="EE6" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="EF6" s="25" t="s">
-        <v>503</v>
+      <c r="EF6" s="24" t="s">
+        <v>421</v>
       </c>
       <c r="EG6" s="2" t="s">
         <v>61</v>
@@ -6506,25 +6521,25 @@
       <c r="FE6" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="FF6" s="17" t="s">
+      <c r="FF6" s="16" t="s">
         <v>368</v>
       </c>
       <c r="FG6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="FH6" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="FI6" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="FJ6" s="18" t="s">
+      <c r="FH6" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="FI6" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="FJ6" s="17" t="s">
         <v>76</v>
       </c>
       <c r="FK6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="FL6" s="17" t="s">
+      <c r="FL6" s="16" t="s">
         <v>171</v>
       </c>
       <c r="FM6" s="2" t="s">
@@ -6611,16 +6626,16 @@
       <c r="GN6" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="GO6" s="16" t="s">
+      <c r="GO6" s="15" t="s">
         <v>345</v>
       </c>
       <c r="GP6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="GQ6" s="16" t="s">
+      <c r="GQ6" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="GR6" s="16" t="s">
+      <c r="GR6" s="15" t="s">
         <v>181</v>
       </c>
       <c r="GS6" s="2" t="s">
@@ -6665,7 +6680,7 @@
       <c r="HF6" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="HG6" s="16" t="s">
+      <c r="HG6" s="15" t="s">
         <v>213</v>
       </c>
       <c r="HH6" s="2" t="s">
@@ -6698,7 +6713,7 @@
       <c r="HQ6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="HR6" s="16" t="s">
+      <c r="HR6" s="15" t="s">
         <v>76</v>
       </c>
       <c r="HS6" s="2" t="s">
@@ -6743,13 +6758,13 @@
       <c r="IF6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="IG6" s="18" t="s">
+      <c r="IG6" s="17" t="s">
         <v>76</v>
       </c>
       <c r="IH6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="II6" s="17" t="s">
+      <c r="II6" s="16" t="s">
         <v>171</v>
       </c>
       <c r="IJ6" s="2" t="s">
@@ -6797,31 +6812,31 @@
         <v>61</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>463</v>
+        <v>374</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>463</v>
+        <v>374</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>464</v>
+        <v>375</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>465</v>
+        <v>376</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>466</v>
+        <v>377</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>467</v>
+        <v>378</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>468</v>
+        <v>379</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>240</v>
@@ -6848,27 +6863,27 @@
         <v>5</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>469</v>
+        <v>380</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>470</v>
+        <v>381</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>469</v>
+        <v>380</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>470</v>
+        <v>381</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>471</v>
+        <v>382</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC7" s="22" t="s">
+      <c r="AC7" s="21" t="s">
         <v>365</v>
       </c>
       <c r="AD7" s="2" t="s">
@@ -6902,10 +6917,10 @@
         <v>36</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>472</v>
+        <v>383</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>473</v>
+        <v>384</v>
       </c>
       <c r="AP7" s="2" t="s">
         <v>74</v>
@@ -6914,19 +6929,19 @@
         <v>41</v>
       </c>
       <c r="AR7" s="5" t="s">
-        <v>474</v>
+        <v>385</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>237</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>469</v>
+        <v>380</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>475</v>
+        <v>386</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="AW7" s="2" t="s">
         <v>164</v>
@@ -6935,7 +6950,7 @@
         <v>54</v>
       </c>
       <c r="AY7" s="5" t="s">
-        <v>477</v>
+        <v>388</v>
       </c>
       <c r="AZ7" s="2" t="s">
         <v>238</v>
@@ -6944,25 +6959,25 @@
         <v>86</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>478</v>
+        <v>389</v>
       </c>
       <c r="BC7" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="BD7" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="BD7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>469</v>
+        <v>380</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="BG7" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH7" s="25" t="s">
-        <v>478</v>
+        <v>381</v>
+      </c>
+      <c r="BG7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH7" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="BI7" s="6" t="s">
         <v>62</v>
@@ -6976,14 +6991,14 @@
       <c r="BL7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BM7" s="22" t="s">
+      <c r="BM7" s="21" t="s">
         <v>366</v>
       </c>
       <c r="BN7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BO7" s="5" t="s">
-        <v>480</v>
+        <v>391</v>
       </c>
       <c r="BP7" s="2" t="s">
         <v>239</v>
@@ -7003,13 +7018,13 @@
       <c r="BU7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BV7" s="19" t="s">
+      <c r="BV7" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="BW7" s="19" t="s">
+      <c r="BW7" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="BX7" s="19" t="s">
+      <c r="BX7" s="18" t="s">
         <v>274</v>
       </c>
       <c r="BY7" s="3" t="s">
@@ -7021,22 +7036,22 @@
       <c r="CA7" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CB7" s="20" t="s">
+      <c r="CB7" s="19" t="s">
         <v>278</v>
       </c>
       <c r="CC7" s="3">
-        <v>11100275113</v>
+        <v>11100275413</v>
       </c>
       <c r="CD7" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CE7" s="19" t="s">
+      <c r="CE7" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="CF7" s="19" t="s">
+      <c r="CF7" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="CG7" s="19" t="s">
+      <c r="CG7" s="18" t="s">
         <v>274</v>
       </c>
       <c r="CH7" s="3" t="s">
@@ -7045,7 +7060,7 @@
       <c r="CI7" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CJ7" s="21" t="s">
+      <c r="CJ7" s="20" t="s">
         <v>282</v>
       </c>
       <c r="CK7" s="2" t="s">
@@ -7060,13 +7075,13 @@
       <c r="CN7" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CO7" s="21" t="s">
+      <c r="CO7" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="CP7" s="20" t="s">
+      <c r="CP7" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="CQ7" s="21" t="s">
+      <c r="CQ7" s="20" t="s">
         <v>284</v>
       </c>
       <c r="CR7" s="3" t="s">
@@ -7093,88 +7108,88 @@
       <c r="CY7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="CZ7" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="DA7" s="14" t="s">
+      <c r="CZ7" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="DA7" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="DB7" s="14" t="s">
+      <c r="DB7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DC7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DD7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="DE7" s="14" t="s">
+      <c r="DC7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DF7" s="14" t="s">
+      <c r="DF7" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="DG7" s="14" t="s">
+      <c r="DG7" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="DH7" s="14" t="s">
+      <c r="DH7" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="DI7" s="14" t="s">
+      <c r="DI7" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="DJ7" s="14" t="s">
+      <c r="DJ7" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="DK7" s="14" t="s">
+      <c r="DK7" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="DL7" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="DM7" s="15" t="s">
+      <c r="DL7" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="DM7" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DN7" s="16" t="s">
+      <c r="DN7" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="DO7" s="15" t="s">
+      <c r="DO7" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="DP7" s="15" t="s">
+      <c r="DP7" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="DQ7" s="15" t="s">
+      <c r="DQ7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="DR7" s="15" t="s">
+      <c r="DR7" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="DS7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DT7" s="15" t="s">
+      <c r="DS7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT7" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="DU7" s="15" t="s">
+      <c r="DU7" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="DV7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DW7" s="15" t="s">
+      <c r="DV7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW7" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="DX7" s="15" t="s">
+      <c r="DX7" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="DY7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="DZ7" s="15" t="s">
+      <c r="DY7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DZ7" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="EA7" s="15" t="s">
+      <c r="EA7" s="14" t="s">
         <v>321</v>
       </c>
       <c r="EB7" s="2" t="s">
@@ -7183,14 +7198,14 @@
       <c r="EC7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="ED7" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="EE7" s="25" t="s">
+      <c r="ED7" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="EE7" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="EF7" s="25" t="s">
-        <v>504</v>
+      <c r="EF7" s="24" t="s">
+        <v>397</v>
       </c>
       <c r="EG7" s="2" t="s">
         <v>61</v>
@@ -7267,25 +7282,25 @@
       <c r="FE7" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="FF7" s="17" t="s">
+      <c r="FF7" s="16" t="s">
         <v>368</v>
       </c>
       <c r="FG7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="FH7" s="27" t="s">
-        <v>514</v>
-      </c>
-      <c r="FI7" s="27" t="s">
-        <v>516</v>
-      </c>
-      <c r="FJ7" s="18" t="s">
+      <c r="FH7" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="FI7" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="FJ7" s="17" t="s">
         <v>76</v>
       </c>
       <c r="FK7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="FL7" s="17" t="s">
+      <c r="FL7" s="16" t="s">
         <v>171</v>
       </c>
       <c r="FM7" s="2" t="s">
@@ -7372,16 +7387,16 @@
       <c r="GN7" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="GO7" s="16" t="s">
+      <c r="GO7" s="15" t="s">
         <v>345</v>
       </c>
       <c r="GP7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="GQ7" s="16" t="s">
+      <c r="GQ7" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="GR7" s="16" t="s">
+      <c r="GR7" s="15" t="s">
         <v>181</v>
       </c>
       <c r="GS7" s="2" t="s">
@@ -7426,7 +7441,7 @@
       <c r="HF7" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="HG7" s="16" t="s">
+      <c r="HG7" s="15" t="s">
         <v>213</v>
       </c>
       <c r="HH7" s="2" t="s">
@@ -7459,7 +7474,7 @@
       <c r="HQ7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="HR7" s="16" t="s">
+      <c r="HR7" s="15" t="s">
         <v>76</v>
       </c>
       <c r="HS7" s="2" t="s">
@@ -7504,13 +7519,13 @@
       <c r="IF7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="IG7" s="18" t="s">
+      <c r="IG7" s="17" t="s">
         <v>76</v>
       </c>
       <c r="IH7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="II7" s="17" t="s">
+      <c r="II7" s="16" t="s">
         <v>171</v>
       </c>
       <c r="IJ7" s="2" t="s">
@@ -7574,4 +7589,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>